--- a/public/data/menu.xlsx
+++ b/public/data/menu.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="23040" windowHeight="8555"/>
   </bookViews>
   <sheets>
-    <sheet name="Food" sheetId="1" r:id="rId4"/>
-    <sheet name="Drink" sheetId="2" r:id="rId5"/>
-    <sheet name="Category" sheetId="3" r:id="rId6"/>
-    <sheet name="Helper" sheetId="4" r:id="rId7"/>
+    <sheet name="Food" sheetId="1" r:id="rId1"/>
+    <sheet name="Drink" sheetId="2" r:id="rId2"/>
+    <sheet name="Category" sheetId="3" r:id="rId3"/>
+    <sheet name="Helper" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="112">
   <si>
     <t>Category</t>
   </si>
@@ -22,6 +38,12 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Name - lower</t>
+  </si>
+  <si>
+    <t>Name - EN</t>
+  </si>
+  <si>
     <t>Price</t>
   </si>
   <si>
@@ -34,64 +56,292 @@
     <t>Favorite</t>
   </si>
   <si>
-    <t>appetizer</t>
-  </si>
-  <si>
-    <t>Mì ý</t>
+    <t>roll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chả giò
+</t>
+  </si>
+  <si>
+    <t>Spring Roll</t>
+  </si>
+  <si>
+    <t>nhân khoai các loại, cà rốt, mộc nhĩ, bắp, đậu xanh, dùng kèm nước mắm chua ngọt</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="9"/>
+        <u/>
+        <sz val="10"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_2.svg?alt=media&amp;token=7e45b7a5-98f9-4820-be7d-133437aff9e5</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">gỏi cuốn
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer Roll </t>
+  </si>
+  <si>
+    <t>nhân bún tươi, rau thơm các loại, nấm xào thập cẩm dùng kèm xốt đậu phộng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914</t>
     </r>
   </si>
   <si>
+    <t>bì cuốn</t>
+  </si>
+  <si>
+    <t>Crystal Autumn Roll</t>
+  </si>
+  <si>
+    <t>nhân khoai các loại, thính, miến, rau thơm các loại, dùng kèm nước mắm chua ngọt</t>
+  </si>
+  <si>
+    <t>mẹt cuốn</t>
+  </si>
+  <si>
+    <t>Veggie Wrap &amp; Roll</t>
+  </si>
+  <si>
+    <t>cuốn bành tráng với bún tươi, rau sống các loại, nấm xốt dầu hào, kèm xốt đậu phộng</t>
+  </si>
+  <si>
+    <t>bánh xèo</t>
+  </si>
+  <si>
+    <t>Vietnamese Pancake</t>
+  </si>
+  <si>
+    <t>nhân giá đỗ, cà rốt, nấm xào thập cẩm, đậu xanh, cuốn bành tráng với rau sống các loại, dùng kèm nước mắm chua ngọt.</t>
+  </si>
+  <si>
+    <t>Nấm nướng lá lốt</t>
+  </si>
+  <si>
+    <t>Grilled mushrooms rolled in piper lolot</t>
+  </si>
+  <si>
+    <t>Lá lốt cuộn nấm xào thập cẩm nướng, cuốn bánh tráng với bún tươi, rau sống các loại, dùng kèm mắm nêm chay</t>
+  </si>
+  <si>
+    <t>hotPot</t>
+  </si>
+  <si>
+    <t>lẩu nấm tiêu xanh</t>
+  </si>
+  <si>
+    <t>Green pepper &amp; mushrooms hot pot</t>
+  </si>
+  <si>
+    <t>nước lẩu tiêu xanh ; rau mồng tơi ; rau cải thảo ; rau cải bẹ xanh ; nấm đùi gà ; nấm bào ngư ; nấm kim châm ; đậu hủ non ; dùng kèm nước mắm chay ăn kèm và bún tươi</t>
+  </si>
+  <si>
+    <t>lẩu thái</t>
+  </si>
+  <si>
+    <t>Thai hot pot</t>
+  </si>
+  <si>
+    <t>nước lẩu thái ; rau bắp chuối ; rau cải thảo ; rau muống ; rau cần nước ; nấm đùi gà ; nấm kim châm ; nấm bào ngư ; đậu hủ non dùng kèm với nước mắm chay và bún tươi</t>
+  </si>
+  <si>
+    <t>lẩu sa tế diệu thiện</t>
+  </si>
+  <si>
+    <t>Dieu Thien spicy sauce hot pot</t>
+  </si>
+  <si>
+    <t>nước lẩu sa tế ; rau mồng tơi ; rau cải thảo ; nấm bào ngư ; nấm đùi gà ; nấm kim châm đen ; đậu hủ ; tàu hủ ki dùng kèm với nước mắm sa tế và bún tươi</t>
+  </si>
+  <si>
+    <t>lẩu chao</t>
+  </si>
+  <si>
+    <t>furmented bean curd hot pot</t>
+  </si>
+  <si>
+    <t>nước lẩu chao ; rau mồng tơi ; rau cải thảo ; rau cải bẹ xanh ; nấm đùi gà ; nấm bào ngư ; tàu hủ ki dùng kèm với nước chấm chao chay và bún tươi</t>
+  </si>
+  <si>
+    <t>lẩu kim chi hàn quốc</t>
+  </si>
+  <si>
+    <t>korean kimchi hot pot</t>
+  </si>
+  <si>
+    <t>nước lẩu kim chi ; rau bắp cải tím ; rau bắp cải thảo ; nấm bào ngư dùng với mì hàn quốc</t>
+  </si>
+  <si>
+    <t>lẩu uyên ương</t>
+  </si>
+  <si>
+    <t>lovebird hot pot</t>
+  </si>
+  <si>
     <t>mainDish</t>
   </si>
   <si>
-    <t>Hàu</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914</t>
-    </r>
-  </si>
-  <si>
-    <t>Ngũ dị</t>
-  </si>
-  <si>
-    <t>Cơm chiên</t>
-  </si>
-  <si>
-    <t>Nồi đất ư ư</t>
-  </si>
-  <si>
-    <t>Cơm chiên nhưng đổi góc chụp</t>
-  </si>
-  <si>
-    <t>roll</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_2.svg?alt=media&amp;token=7e45b7a5-98f9-4820-be7d-133437aff9e5</t>
-    </r>
+    <t>cơm chiên rong biển</t>
+  </si>
+  <si>
+    <t>fried rice with seaweed</t>
+  </si>
+  <si>
+    <t>cơm, cá mặn chay, chà bông chay, rong biển chay, hành lá (có điều chỉnh)</t>
+  </si>
+  <si>
+    <t>cơm chiên thơm kiểu thái</t>
+  </si>
+  <si>
+    <t>Thai fried rice with pineapple</t>
+  </si>
+  <si>
+    <t>Cơm, thơm, đậu cô ve, cà rốt, bắp Mỹ, hành lá (có thể điều chỉnh)</t>
+  </si>
+  <si>
+    <t>cơm chiên dương châu</t>
+  </si>
+  <si>
+    <t>Yang Chow fried rice</t>
+  </si>
+  <si>
+    <t>Cơm chiên dương châu: Cơm, đậu cô ve, cà rốt, bắp Mỹ, hành lá (có thể điều chỉnh)</t>
+  </si>
+  <si>
+    <t>cơm trộn hàn quốc</t>
+  </si>
+  <si>
+    <t>korean mixed rice</t>
+  </si>
+  <si>
+    <t>Cơm, giá đỗ, bắp cải tím, ớt chuông, bắp Mỹ, đậu phông rim mè, nấm chiên, dùng kèm xốt cơm trộn Hàn Quốc</t>
+  </si>
+  <si>
+    <t>cơm nấm lúc lắc &amp; canh rau củ</t>
+  </si>
+  <si>
+    <t>saute dice mushroom rice &amp; curry soup</t>
+  </si>
+  <si>
+    <t>Cơm, nấm đùi gà, ớt chuông, hành tây, tỏi phi, xốt lúc lắc dùng kèm canh rau củ</t>
+  </si>
+  <si>
+    <t>cơm cà ri &amp; canh rau củ</t>
+  </si>
+  <si>
+    <t>curry rice &amp; veggy soup</t>
+  </si>
+  <si>
+    <t>Cơm, nấm đùi gà, khoai lang, cà rốt, khoai môn, nước cốt dừa, gia vị cà ri, dùng kèm canh rau củ</t>
+  </si>
+  <si>
+    <t>MIẾN TRỘN</t>
+  </si>
+  <si>
+    <t>miến Hàn Quốc, cải thìa, bắp cải tím, cà rốt, nấm bào ngư chiên, xốt miến trộn.</t>
+  </si>
+  <si>
+    <t>PAD thái</t>
+  </si>
+  <si>
+    <t>hủ tiếu, giá đỗ, hẹ, đậu hũ chiên, nấm chiên, xốt me, dùng kèm lạc rang, ớt, chanh.</t>
+  </si>
+  <si>
+    <t>HỦ TIẾU ÁP CHẢO</t>
+  </si>
+  <si>
+    <t>Hủ tiếu, ớt chuông, cải thảo, hành tây, cải thài, đậu hũ chiên, nấm chiên, tỏi phi.</t>
+  </si>
+  <si>
+    <t>MÌ vàng XÀO THẬP CẨM
+quốc</t>
+  </si>
+  <si>
+    <t>Mì vàng, ớt chuông, cải thảo, hành tây, cải thài, đậu hũ chiên, nấm chiên, hành phi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MÌ Ý SỐT CÀ CHUA NẤM </t>
+  </si>
+  <si>
+    <t>Mì Ý, nấm đùi gà, sốt cà chua,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÀ RI BÁNH MÌ </t>
+  </si>
+  <si>
+    <t>NẤm lÚC LẮC KHOAI TÂY</t>
+  </si>
+  <si>
+    <t>Mì ramen (Khô/ nước)</t>
+  </si>
+  <si>
+    <t>vegan ramen ( dry / soup )</t>
+  </si>
+  <si>
+    <t>Nấm xúc bánh đa</t>
+  </si>
+  <si>
+    <t>Stir-fried Mushrooms served with Sesame Rice Crackers</t>
+  </si>
+  <si>
+    <t>ĐẬU HŨ NON CHIÊN GIÒN CHÀ BÔNG</t>
+  </si>
+  <si>
+    <t>Fried Young Tofu with Meat floss</t>
+  </si>
+  <si>
+    <t>đậu hủ non, chà bông chay, rong biển, mỡ hành dùng kèm với mayonnaise tương ớt</t>
+  </si>
+  <si>
+    <t>NẤM bào ngư xốc muối hongkong</t>
+  </si>
+  <si>
+    <t>HongKong Salted Oyster Mushrooms</t>
+  </si>
+  <si>
+    <t>nấm bào ngư, muối Hong Kong dùng kèm với mayonnaise tương ớt</t>
+  </si>
+  <si>
+    <t>ĐẬU NON RONG BIỂN SỐT TERIYAKI</t>
+  </si>
+  <si>
+    <t>Seaweed rolled Young Tofu &amp; Teriyaki Sauce</t>
+  </si>
+  <si>
+    <t>đậu hủ non cuộn rong biển chiên giòn, sốt teriyaki</t>
+  </si>
+  <si>
+    <t>KHOAI TÂY BỌT BIỂN</t>
+  </si>
+  <si>
+    <t>spongy spongy potato</t>
+  </si>
+  <si>
+    <t>khoai tây ; chà bông chay ; rong biển dùng với mayonnaise tương ớt</t>
+  </si>
+  <si>
+    <t>soup</t>
+  </si>
+  <si>
+    <t>saltDish</t>
+  </si>
+  <si>
+    <t>dessert</t>
   </si>
   <si>
     <t>tea</t>
@@ -106,19 +356,13 @@
     <t>food</t>
   </si>
   <si>
-    <t>hotPot</t>
+    <t>appetizer</t>
   </si>
   <si>
     <t>ricePortion</t>
   </si>
   <si>
-    <t>soup</t>
-  </si>
-  <si>
-    <t>saltDish</t>
-  </si>
-  <si>
-    <t>dessert</t>
+    <t>salad</t>
   </si>
   <si>
     <t>drink</t>
@@ -148,47 +392,194 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="#,##0.00&quot; &quot;[$₫-42A]"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00&quot; &quot;[$₫-42A]"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="9"/>
-      <color indexed="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="11"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0D1216"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,11 +589,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -225,91 +802,419 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -508,8 +1413,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -529,7 +1432,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -538,10 +1441,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -558,7 +1461,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -583,7 +1486,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -608,7 +1511,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -633,7 +1536,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -658,7 +1561,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -683,7 +1586,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -708,7 +1611,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -733,7 +1636,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -758,7 +1661,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -771,9 +1674,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -787,8 +1696,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -808,7 +1715,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -833,7 +1740,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -858,7 +1765,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -883,7 +1790,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -908,7 +1815,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -933,7 +1840,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -958,7 +1865,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -983,7 +1890,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1008,7 +1915,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1033,7 +1940,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1046,9 +1953,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1059,8 +1972,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1080,7 +1991,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1089,10 +2000,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1109,7 +2020,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1134,7 +2045,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1159,7 +2070,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1184,7 +2095,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1209,7 +2120,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1234,7 +2145,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1259,7 +2170,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1284,7 +2195,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1309,7 +2220,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1322,9 +2233,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1333,273 +2250,1441 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.3516" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.8516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6719" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6759259259259" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.3518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.0740740740741" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6759259259259" style="1" customWidth="1"/>
+    <col min="6" max="6" width="119.212962962963" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.8518518518519" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="12.6759259259259" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57.75" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="57.75" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
+    </row>
+    <row r="2" ht="36" customHeight="1" spans="1:8">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f>LOWER(B2)</f>
+        <v>chả giò
+</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10">
+        <v>50000</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="36" customHeight="1" spans="1:8">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="str">
+        <f t="shared" ref="C3:C41" si="0">LOWER(B3)</f>
+        <v>gỏi cuốn
+</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="10">
+        <v>50000</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="36" customHeight="1" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>bì cuốn</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="10">
+        <v>50000</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="36" customHeight="1" spans="1:8">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>mẹt cuốn</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="10">
         <v>55000</v>
       </c>
-      <c r="D2" t="s" s="3">
-        <f>B2</f>
-        <v>7</v>
-      </c>
-      <c r="E2" t="s" s="5">
+      <c r="F5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="36" customHeight="1" spans="1:8">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="b" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="57.75" customHeight="1">
-      <c r="A3" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4">
-        <f>C2+1000</f>
-        <v>56000</v>
-      </c>
-      <c r="D3" t="s" s="3">
-        <f>B3</f>
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="F3" t="b" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="57.75" customHeight="1">
-      <c r="A4" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4">
-        <f>C3+1000</f>
-        <v>57000</v>
-      </c>
-      <c r="D4" t="s" s="3">
-        <f>B4</f>
-        <v>12</v>
-      </c>
-      <c r="E4" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="F4" t="b" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="57.75" customHeight="1">
-      <c r="A5" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4">
-        <f>C4+1000</f>
-        <v>58000</v>
-      </c>
-      <c r="D5" t="s" s="3">
-        <f>B5</f>
-        <v>13</v>
-      </c>
-      <c r="E5" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="F5" t="b" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="57.75" customHeight="1">
-      <c r="A6" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4">
-        <f>C5+1000</f>
+      <c r="B6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>bánh xèo</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="10">
+        <v>55000</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="36" customHeight="1" spans="1:8">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>nấm nướng lá lốt</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="10">
+        <v>55000</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="36" customHeight="1" spans="1:8">
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>lẩu nấm tiêu xanh</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="36" customHeight="1" spans="1:8">
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>lẩu thái</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="36" customHeight="1" spans="1:8">
+      <c r="A10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>lẩu sa tế diệu thiện</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" ht="36" customHeight="1" spans="1:8">
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>lẩu chao</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="36" customHeight="1" spans="1:8">
+      <c r="A12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="36" customHeight="1" spans="1:8">
+      <c r="A13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>lẩu uyên ương</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="10">
+        <v>250000</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="36" customHeight="1" spans="1:8">
+      <c r="A14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>cơm chiên rong biển</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="10">
+        <v>55000</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="36" customHeight="1" spans="1:8">
+      <c r="A15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>cơm chiên thơm kiểu thái</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="10">
+        <v>55000</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="36" customHeight="1" spans="1:8">
+      <c r="A16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>cơm chiên dương châu</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="10">
+        <v>55000</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="36" customHeight="1" spans="1:8">
+      <c r="A17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>cơm trộn hàn quốc</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="10">
         <v>59000</v>
       </c>
-      <c r="D6" t="s" s="3">
-        <f>B6</f>
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="F6" t="b" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="57.75" customHeight="1">
-      <c r="A7" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4">
-        <f>C6+1000</f>
-        <v>60000</v>
-      </c>
-      <c r="D7" t="s" s="3">
-        <f>B7</f>
-        <v>15</v>
-      </c>
-      <c r="E7" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="F7" t="b" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="57.75" customHeight="1">
-      <c r="A8" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4">
-        <f>C7+1000</f>
-        <v>61000</v>
-      </c>
-      <c r="D8" t="s" s="3">
-        <f>B8</f>
-        <v>15</v>
-      </c>
-      <c r="E8" t="s" s="7">
-        <v>17</v>
-      </c>
-      <c r="F8" t="b" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="57.75" customHeight="1">
-      <c r="A9" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4">
-        <f>C8+1000</f>
-        <v>62000</v>
-      </c>
-      <c r="D9" t="s" s="3">
-        <f>B9</f>
-        <v>14</v>
-      </c>
-      <c r="E9" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="F9" t="b" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="57.75" customHeight="1">
-      <c r="A10" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" t="b" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="57.75" customHeight="1">
-      <c r="A11" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" t="b" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="57.75" customHeight="1">
-      <c r="A12" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" t="b" s="6">
+      <c r="F17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="36" customHeight="1" spans="1:8">
+      <c r="A18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>cơm nấm lúc lắc &amp; canh rau củ</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="10">
+        <v>55000</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="36" customHeight="1" spans="1:8">
+      <c r="A19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>cơm cà ri &amp; canh rau củ</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="10">
+        <v>55000</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="36" customHeight="1" spans="1:8">
+      <c r="A20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>miến trộn</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="10">
+        <v>55000</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="36" customHeight="1" spans="1:8">
+      <c r="A21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>pad thái</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="10">
+        <v>55000</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="36" customHeight="1" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>hủ tiếu áp chảo</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="10">
+        <v>55000</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="36" customHeight="1" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>mì vàng xào thập cẩm
+quốc</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="10">
+        <v>55000</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="36" customHeight="1" spans="1:8">
+      <c r="A24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>mì ý sốt cà chua nấm </v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="10">
+        <v>59000</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="36" customHeight="1" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>cà ri bánh mì </v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="10">
+        <v>65000</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="36" customHeight="1" spans="1:8">
+      <c r="A26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>nấm lúc lắc khoai tây</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="10">
+        <v>65000</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="36" customHeight="1" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>mì ramen (khô/ nước)</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="36" customHeight="1" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>nấm xúc bánh đa</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="36" customHeight="1" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>đậu hũ non chiên giòn chà bông</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="36" customHeight="1" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>nấm bào ngư xốc muối hongkong</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="36" customHeight="1" spans="1:8">
+      <c r="A31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>đậu non rong biển sốt teriyaki</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="36" customHeight="1" spans="1:8">
+      <c r="A32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="10" t="str">
+        <f>LOWER(B32)</f>
+        <v>khoai tây bọt biển</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="36" customHeight="1" spans="1:8">
+      <c r="A33" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="10" t="str">
+        <f>LOWER(B33)</f>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="36" customHeight="1" spans="1:8">
+      <c r="A34" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="10" t="str">
+        <f>LOWER(B34)</f>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="36" customHeight="1" spans="1:8">
+      <c r="A35" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="10" t="str">
+        <f>LOWER(B35)</f>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="36" customHeight="1" spans="1:8">
+      <c r="A36" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="10" t="str">
+        <f t="shared" ref="C36:C56" si="1">LOWER(B36)</f>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="36" customHeight="1" spans="1:8">
+      <c r="A37" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="36" customHeight="1" spans="1:8">
+      <c r="A38" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="36" customHeight="1" spans="1:8">
+      <c r="A39" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="36" customHeight="1" spans="1:8">
+      <c r="A40" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="36" customHeight="1" spans="1:8">
+      <c r="A41" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="36" customHeight="1" spans="1:8">
+      <c r="A42" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="36" customHeight="1" spans="1:8">
+      <c r="A43" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="36" customHeight="1" spans="1:8">
+      <c r="A44" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="36" customHeight="1" spans="1:8">
+      <c r="A45" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="36" customHeight="1" spans="1:8">
+      <c r="A46" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="36" customHeight="1" spans="1:8">
+      <c r="A47" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="36" customHeight="1" spans="1:8">
+      <c r="A48" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="36" customHeight="1" spans="1:8">
+      <c r="A49" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="13"/>
+      <c r="H49" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="36" customHeight="1" spans="1:8">
+      <c r="A50" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="13"/>
+      <c r="H50" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="36" customHeight="1" spans="1:8">
+      <c r="A51" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" s="13"/>
+      <c r="H51" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="36" customHeight="1" spans="1:8">
+      <c r="A52" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="36" customHeight="1" spans="1:8">
+      <c r="A53" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="36" customHeight="1" spans="1:8">
+      <c r="A54" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="36" customHeight="1" spans="1:8">
+      <c r="A55" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G55" s="13"/>
+      <c r="H55" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" ht="36" customHeight="1" spans="1:8">
+      <c r="A56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>lẩu kim chi hàn quốc</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="12" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A10 A11 A32 A2:A6 A8:A9 A12:A13 A14:A15 A16:A17 A18:A19 A20:A27 A28:A31 A33:A37 A38:A49 A50:A54 A55:A56">
       <formula1>"appetizer,roll,mainDish,hotPot,ricePortion,soup,saltDish,dessert"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" location="" tooltip="" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
-    <hyperlink ref="E3" r:id="rId2" location="" tooltip="" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
-    <hyperlink ref="E4" r:id="rId3" location="" tooltip="" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
-    <hyperlink ref="E5" r:id="rId4" location="" tooltip="" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
-    <hyperlink ref="E6" r:id="rId5" location="" tooltip="" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
-    <hyperlink ref="E7" r:id="rId6" location="" tooltip="" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
-    <hyperlink ref="E8" r:id="rId7" location="" tooltip="" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_2.svg?alt=media&amp;token=7e45b7a5-98f9-4820-be7d-133437aff9e5"/>
-    <hyperlink ref="E9" r:id="rId8" location="" tooltip="" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_2.svg?alt=media&amp;token=7e45b7a5-98f9-4820-be7d-133437aff9e5"/>
+    <hyperlink ref="G3" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1607,136 +3692,137 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="6" width="12.6719" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="12.6719" style="9" customWidth="1"/>
+    <col min="1" max="16384" width="12.6759259259259" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" customHeight="1">
-      <c r="A1" t="s" s="10">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="10">
+    <row r="1" ht="18.5" customHeight="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="10">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="10">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="10">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="10">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s" s="11">
-        <v>19</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="5">
         <v>550000</v>
       </c>
-      <c r="D2" t="s" s="11">
+      <c r="D2" s="2" t="str">
         <f>B2</f>
-        <v>19</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" t="b" s="14">
+        <v>Trà</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" t="b" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" t="b" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" t="b" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" t="b" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" t="b" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" t="b" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" t="b" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" t="b" s="14">
+    <row r="3" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1750,7 +3836,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1758,193 +3844,205 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="12.6719" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="15" customWidth="1"/>
+    <col min="1" max="16384" width="12.6759259259259" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s" s="11">
+    <row r="1" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s" s="11">
-        <v>6</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s" s="11">
-        <v>22</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s" s="11">
-        <v>24</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" ht="13.65" customHeight="1">
-      <c r="A12" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s" s="11">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" ht="13.65" customHeight="1">
-      <c r="A13" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" ht="13.65" customHeight="1">
-      <c r="A14" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" ht="13.65" customHeight="1">
-      <c r="A15" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s" s="11">
-        <v>32</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10 A2:A9 A11:A16">
       <formula1>"food,drink"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1952,139 +4050,142 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="12.6719" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="16" customWidth="1"/>
+    <col min="1" max="16384" width="12.6759259259259" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="11">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s" s="11">
-        <v>34</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="11">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s" s="11">
+    <row r="1" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="11">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" t="s" s="11">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s" s="11">
-        <v>32</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" ht="13.65" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="B5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/public/data/menu.xlsx
+++ b/public/data/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8555"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="283">
   <si>
     <t>Category</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Name - lower</t>
   </si>
   <si>
-    <t>Name - EN</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -56,14 +53,22 @@
     <t>Favorite</t>
   </si>
   <si>
+    <t>Name_en</t>
+  </si>
+  <si>
+    <t>Desc_en</t>
+  </si>
+  <si>
+    <t>Name_zh</t>
+  </si>
+  <si>
+    <t>Desc_zh</t>
+  </si>
+  <si>
     <t>roll</t>
   </si>
   <si>
-    <t xml:space="preserve">chả giò
-</t>
-  </si>
-  <si>
-    <t>Spring Roll</t>
+    <t>chả giò</t>
   </si>
   <si>
     <t>nhân khoai các loại, cà rốt, mộc nhĩ, bắp, đậu xanh, dùng kèm nước mắm chua ngọt</t>
@@ -81,11 +86,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">gỏi cuốn
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summer Roll </t>
+    <t>Spring Roll</t>
+  </si>
+  <si>
+    <t>Filled with assorted potatoes, carrots, wood ear mushrooms, corn, green beans, served with sweet and sour fish sauce</t>
+  </si>
+  <si>
+    <t>gỏi cuốn</t>
   </si>
   <si>
     <t>nhân bún tươi, rau thơm các loại, nấm xào thập cẩm dùng kèm xốt đậu phộng</t>
@@ -103,40 +110,61 @@
     </r>
   </si>
   <si>
+    <t>Summer Roll</t>
+  </si>
+  <si>
+    <t>Fresh vermicelli filling, assorted herbs, mixed stir-fried mushrooms served with peanut sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer Roll </t>
+  </si>
+  <si>
     <t>bì cuốn</t>
   </si>
   <si>
+    <t>nhân khoai các loại, thính, miến, rau thơm các loại, dùng kèm nước mắm chua ngọt</t>
+  </si>
+  <si>
     <t>Crystal Autumn Roll</t>
   </si>
   <si>
-    <t>nhân khoai các loại, thính, miến, rau thơm các loại, dùng kèm nước mắm chua ngọt</t>
+    <t>Filled with assorted potatoes, taro, vermicelli, assorted herbs, served with sweet and sour fish sauce</t>
   </si>
   <si>
     <t>mẹt cuốn</t>
   </si>
   <si>
+    <t>cuốn bành tráng với bún tươi, rau sống các loại, nấm xốt dầu hào, kèm xốt đậu phộng</t>
+  </si>
+  <si>
     <t>Veggie Wrap &amp; Roll</t>
   </si>
   <si>
-    <t>cuốn bành tráng với bún tươi, rau sống các loại, nấm xốt dầu hào, kèm xốt đậu phộng</t>
+    <t>Rice paper rolls with fresh vermicelli, assorted raw vegetables, mushrooms in oyster sauce, and peanut sauce</t>
   </si>
   <si>
     <t>bánh xèo</t>
   </si>
   <si>
+    <t>nhân giá đỗ, cà rốt, nấm xào thập cẩm, đậu xanh, cuốn bành tráng với rau sống các loại, dùng kèm nước mắm chua ngọt.</t>
+  </si>
+  <si>
     <t>Vietnamese Pancake</t>
   </si>
   <si>
-    <t>nhân giá đỗ, cà rốt, nấm xào thập cẩm, đậu xanh, cuốn bành tráng với rau sống các loại, dùng kèm nước mắm chua ngọt.</t>
+    <t>stuffed with bean sprouts, carrots, mixed stir-fried mushrooms, green beans, rolled into rice paper with assorted raw vegetables, served with sweet and sour fish sauce.</t>
   </si>
   <si>
     <t>Nấm nướng lá lốt</t>
   </si>
   <si>
+    <t>Lá lốt cuộn nấm xào thập cẩm nướng, cuốn bánh tráng với bún tươi, rau sống các loại, dùng kèm mắm nêm chay</t>
+  </si>
+  <si>
     <t>Grilled mushrooms rolled in piper lolot</t>
   </si>
   <si>
-    <t>Lá lốt cuộn nấm xào thập cẩm nướng, cuốn bánh tráng với bún tươi, rau sống các loại, dùng kèm mắm nêm chay</t>
+    <t>Lolot leaf rolls stir-fried with grilled mixed mushrooms, rice paper rolls with fresh vermicelli, assorted raw vegetables, served with vegetarian seasoning sauce</t>
   </si>
   <si>
     <t>hotPot</t>
@@ -145,46 +173,61 @@
     <t>lẩu nấm tiêu xanh</t>
   </si>
   <si>
+    <t>nước lẩu tiêu xanh ; rau mồng tơi ; rau cải thảo ; rau cải bẹ xanh ; nấm đùi gà ; nấm bào ngư ; nấm kim châm ; đậu hủ non ; dùng kèm nước mắm chay ăn kèm và bún tươi</t>
+  </si>
+  <si>
     <t>Green pepper &amp; mushrooms hot pot</t>
   </si>
   <si>
-    <t>nước lẩu tiêu xanh ; rau mồng tơi ; rau cải thảo ; rau cải bẹ xanh ; nấm đùi gà ; nấm bào ngư ; nấm kim châm ; đậu hủ non ; dùng kèm nước mắm chay ăn kèm và bún tươi</t>
+    <t>green pepper hotpot ; vegetable spinach ; vegetables cabbage ; mustard greens ; chicken drumstick mushrooms ; abalone mushrooms ; enokitake ; Young tofu ; Served with vegetarian fish sauce and fresh vermicelli</t>
   </si>
   <si>
     <t>lẩu thái</t>
   </si>
   <si>
+    <t>nước lẩu thái ; rau bắp chuối ; rau cải thảo ; rau muống ; rau cần nước ; nấm đùi gà ; nấm kim châm ; nấm bào ngư ; đậu hủ non dùng kèm với nước mắm chay và bún tươi</t>
+  </si>
+  <si>
     <t>Thai hot pot</t>
   </si>
   <si>
-    <t>nước lẩu thái ; rau bắp chuối ; rau cải thảo ; rau muống ; rau cần nước ; nấm đùi gà ; nấm kim châm ; nấm bào ngư ; đậu hủ non dùng kèm với nước mắm chay và bún tươi</t>
+    <t>Thai hotpot ; banana vegetables ; vegetables cabbage ; spinach ; Vegetables need water; chicken drumstick mushrooms ; enokitake ; abalone mushrooms ; Soft tofu served with vegetarian fish sauce and fresh vermicelli</t>
   </si>
   <si>
     <t>lẩu sa tế diệu thiện</t>
   </si>
   <si>
+    <t>nước lẩu sa tế ; rau mồng tơi ; rau cải thảo ; nấm bào ngư ; nấm đùi gà ; nấm kim châm đen ; đậu hủ ; tàu hủ ki dùng kèm với nước mắm sa tế và bún tươi</t>
+  </si>
+  <si>
     <t>Dieu Thien spicy sauce hot pot</t>
   </si>
   <si>
-    <t>nước lẩu sa tế ; rau mồng tơi ; rau cải thảo ; nấm bào ngư ; nấm đùi gà ; nấm kim châm đen ; đậu hủ ; tàu hủ ki dùng kèm với nước mắm sa tế và bún tươi</t>
+    <t>satay hotpot ; vegetable spinach ; vegetables cabbage ; abalone mushrooms ; chicken drumstick mushrooms ; black enoki mushroom ; Tofu ; Tofu ki served with satay fish sauce and fresh vermicelli</t>
   </si>
   <si>
     <t>lẩu chao</t>
   </si>
   <si>
+    <t>nước lẩu chao ; rau mồng tơi ; rau cải thảo ; rau cải bẹ xanh ; nấm đùi gà ; nấm bào ngư ; tàu hủ ki dùng kèm với nước chấm chao chay và bún tươi</t>
+  </si>
+  <si>
     <t>furmented bean curd hot pot</t>
   </si>
   <si>
-    <t>nước lẩu chao ; rau mồng tơi ; rau cải thảo ; rau cải bẹ xanh ; nấm đùi gà ; nấm bào ngư ; tàu hủ ki dùng kèm với nước chấm chao chay và bún tươi</t>
+    <t>chao hotpot ; vegetable spinach ; vegetables cabbage ; mustard greens ; chicken drumstick mushrooms ; abalone mushrooms ; Tofu ki served with vegetarian dipping sauce and fresh vermicelli</t>
   </si>
   <si>
     <t>lẩu kim chi hàn quốc</t>
   </si>
   <si>
+    <t>nước lẩu kim chi ; rau bắp cải tím ; rau bắp cải thảo ; nấm bào ngư dùng với mì hàn quốc</t>
+  </si>
+  <si>
     <t>korean kimchi hot pot</t>
   </si>
   <si>
-    <t>nước lẩu kim chi ; rau bắp cải tím ; rau bắp cải thảo ; nấm bào ngư dùng với mì hàn quốc</t>
+    <t>kimchi hotpot ; purple cabbage ; Chinese cabbage ; Abalone mushrooms served with Korean noodles</t>
   </si>
   <si>
     <t>lẩu uyên ương</t>
@@ -199,55 +242,73 @@
     <t>cơm chiên rong biển</t>
   </si>
   <si>
+    <t>cơm, cá mặn chay, chà bông chay, rong biển chay, hành lá (có điều chỉnh)</t>
+  </si>
+  <si>
     <t>fried rice with seaweed</t>
   </si>
   <si>
-    <t>cơm, cá mặn chay, chà bông chay, rong biển chay, hành lá (có điều chỉnh)</t>
+    <t>rice, vegetarian salted fish, vegetarian floss, vegetarian seaweed, green onions (adjustable)</t>
   </si>
   <si>
     <t>cơm chiên thơm kiểu thái</t>
   </si>
   <si>
+    <t>Cơm, thơm, đậu cô ve, cà rốt, bắp Mỹ, hành lá (có thể điều chỉnh)</t>
+  </si>
+  <si>
     <t>Thai fried rice with pineapple</t>
   </si>
   <si>
-    <t>Cơm, thơm, đậu cô ve, cà rốt, bắp Mỹ, hành lá (có thể điều chỉnh)</t>
+    <t>Rice, pineapple, green beans, carrots, American corn, green onions (adjustable)</t>
   </si>
   <si>
     <t>cơm chiên dương châu</t>
   </si>
   <si>
+    <t>Cơm chiên dương châu: Cơm, đậu cô ve, cà rốt, bắp Mỹ, hành lá (có thể điều chỉnh)</t>
+  </si>
+  <si>
     <t>Yang Chow fried rice</t>
   </si>
   <si>
-    <t>Cơm chiên dương châu: Cơm, đậu cô ve, cà rốt, bắp Mỹ, hành lá (có thể điều chỉnh)</t>
+    <t>Duong Chau fried rice: Rice, green beans, carrots, American corn, green onions (adjustable)</t>
   </si>
   <si>
     <t>cơm trộn hàn quốc</t>
   </si>
   <si>
+    <t>Cơm, giá đỗ, bắp cải tím, ớt chuông, bắp Mỹ, đậu phông rim mè, nấm chiên, dùng kèm xốt cơm trộn Hàn Quốc</t>
+  </si>
+  <si>
     <t>korean mixed rice</t>
   </si>
   <si>
-    <t>Cơm, giá đỗ, bắp cải tím, ớt chuông, bắp Mỹ, đậu phông rim mè, nấm chiên, dùng kèm xốt cơm trộn Hàn Quốc</t>
+    <t>Rice, bean sprouts, purple cabbage, bell pepper, American corn, sesame peanuts, fried mushrooms, served with Korean mixed rice sauce</t>
   </si>
   <si>
     <t>cơm nấm lúc lắc &amp; canh rau củ</t>
   </si>
   <si>
+    <t>Cơm, nấm đùi gà, ớt chuông, hành tây, tỏi phi, xốt lúc lắc dùng kèm canh rau củ</t>
+  </si>
+  <si>
     <t>saute dice mushroom rice &amp; curry soup</t>
   </si>
   <si>
-    <t>Cơm, nấm đùi gà, ớt chuông, hành tây, tỏi phi, xốt lúc lắc dùng kèm canh rau củ</t>
+    <t>Rice, chicken drumstick mushrooms, bell peppers, onions, fried garlic, shake sauce served with vegetable soup</t>
   </si>
   <si>
     <t>cơm cà ri &amp; canh rau củ</t>
   </si>
   <si>
+    <t>Cơm, nấm đùi gà, khoai lang, cà rốt, khoai môn, nước cốt dừa, gia vị cà ri, dùng kèm canh rau củ</t>
+  </si>
+  <si>
     <t>curry rice &amp; veggy soup</t>
   </si>
   <si>
-    <t>Cơm, nấm đùi gà, khoai lang, cà rốt, khoai môn, nước cốt dừa, gia vị cà ri, dùng kèm canh rau củ</t>
+    <t>Rice, chicken drumstick mushrooms, sweet potatoes, carrots, taro, coconut milk, curry spices, served with vegetable soup</t>
   </si>
   <si>
     <t>MIẾN TRỘN</t>
@@ -256,10 +317,16 @@
     <t>miến Hàn Quốc, cải thìa, bắp cải tím, cà rốt, nấm bào ngư chiên, xốt miến trộn.</t>
   </si>
   <si>
+    <t>Korean vermicelli, bok choy, purple cabbage, carrots, fried abalone mushrooms, mixed vermicelli sauce.</t>
+  </si>
+  <si>
     <t>PAD thái</t>
   </si>
   <si>
     <t>hủ tiếu, giá đỗ, hẹ, đậu hũ chiên, nấm chiên, xốt me, dùng kèm lạc rang, ớt, chanh.</t>
+  </si>
+  <si>
+    <t>rice noodles, bean sprouts, chives, fried tofu, fried mushrooms, tamarind sauce, served with roasted peanuts, chili, lemon.</t>
   </si>
   <si>
     <t>HỦ TIẾU ÁP CHẢO</t>
@@ -275,13 +342,19 @@
     <t>Mì vàng, ớt chuông, cải thảo, hành tây, cải thài, đậu hũ chiên, nấm chiên, hành phi.</t>
   </si>
   <si>
-    <t xml:space="preserve">MÌ Ý SỐT CÀ CHUA NẤM </t>
+    <t>Rice noodles, bell peppers, Chinese cabbage, onions, Chinese cabbage, fried tofu, fried mushrooms, fried garlic.</t>
+  </si>
+  <si>
+    <t>MÌ Ý SỐT CÀ CHUA NẤM</t>
   </si>
   <si>
     <t>Mì Ý, nấm đùi gà, sốt cà chua,</t>
   </si>
   <si>
-    <t xml:space="preserve">CÀ RI BÁNH MÌ </t>
+    <t>Spaghetti, chicken drumstick mushrooms, tomato sauce,</t>
+  </si>
+  <si>
+    <t>CÀ RI BÁNH MÌ</t>
   </si>
   <si>
     <t>NẤm lÚC LẮC KHOAI TÂY</t>
@@ -302,52 +375,505 @@
     <t>ĐẬU HŨ NON CHIÊN GIÒN CHÀ BÔNG</t>
   </si>
   <si>
+    <t>đậu hủ non, chà bông chay, rong biển, mỡ hành dùng kèm với mayonnaise tương ớt</t>
+  </si>
+  <si>
     <t>Fried Young Tofu with Meat floss</t>
   </si>
   <si>
-    <t>đậu hủ non, chà bông chay, rong biển, mỡ hành dùng kèm với mayonnaise tương ớt</t>
+    <t>Soft tofu, vegetarian floss, seaweed, onion fat served with mayonnaise and chili sauce</t>
   </si>
   <si>
     <t>NẤM bào ngư xốc muối hongkong</t>
   </si>
   <si>
+    <t>nấm bào ngư, muối Hong Kong dùng kèm với mayonnaise tương ớt</t>
+  </si>
+  <si>
     <t>HongKong Salted Oyster Mushrooms</t>
   </si>
   <si>
-    <t>nấm bào ngư, muối Hong Kong dùng kèm với mayonnaise tương ớt</t>
+    <t>abalone mushrooms, Hong Kong salt served with mayonnaise and chili sauce</t>
   </si>
   <si>
     <t>ĐẬU NON RONG BIỂN SỐT TERIYAKI</t>
   </si>
   <si>
+    <t>đậu hủ non cuộn rong biển chiên giòn, sốt teriyaki</t>
+  </si>
+  <si>
     <t>Seaweed rolled Young Tofu &amp; Teriyaki Sauce</t>
   </si>
   <si>
-    <t>đậu hủ non cuộn rong biển chiên giòn, sốt teriyaki</t>
+    <t>Crispy fried seaweed rolled tofu, teriyaki sauce</t>
   </si>
   <si>
     <t>KHOAI TÂY BỌT BIỂN</t>
   </si>
   <si>
+    <t>khoai tây ; chà bông chay ; rong biển dùng với mayonnaise tương ớt</t>
+  </si>
+  <si>
     <t>spongy spongy potato</t>
   </si>
   <si>
-    <t>khoai tây ; chà bông chay ; rong biển dùng với mayonnaise tương ớt</t>
+    <t>potato ; vegetarian floss ; Seaweed served with mayonnaise and chili sauce</t>
   </si>
   <si>
     <t>soup</t>
   </si>
   <si>
+    <t>CANH NẤM ĐẬU HỦ RONG BIỂN</t>
+  </si>
+  <si>
+    <t>rong biển ; tàu hủ, nấm bào ngư, cà rốt , hành phi ; tiêu, gừng</t>
+  </si>
+  <si>
+    <t>Seaweed Soup with Tofu &amp; Mushrooms</t>
+  </si>
+  <si>
+    <t>seaweed ; tofu, abalone mushrooms, carrots, fried onions; pepper, ginger</t>
+  </si>
+  <si>
+    <t>CANH CHUA NAM BỘ</t>
+  </si>
+  <si>
+    <t>bạc hà, đậu bắp, giá đỗ, cà chua, thơm, các loại rau thơm, tỏi phi</t>
+  </si>
+  <si>
+    <t>Southern Vietnamese Sweet &amp; Sour Soup</t>
+  </si>
+  <si>
+    <t>mint, okra, bean sprouts, tomatoes, pineapple, herbs, fried garlic</t>
+  </si>
+  <si>
+    <t>CANH Cải xanh nấu nấm</t>
+  </si>
+  <si>
+    <t>rau cải bẹ xanh, nấm bào ngư, gừng, tiêu</t>
+  </si>
+  <si>
+    <t>Mustard Greens Soup with Mushrooms</t>
+  </si>
+  <si>
+    <t>green mustard greens, abalone mushrooms, ginger, pepper</t>
+  </si>
+  <si>
+    <t>SÚP TÓC TIÊN</t>
+  </si>
+  <si>
+    <t>tóc tiên ; bắp mĩ ; cà rốt ; nấm ; đậu que ; hành phi ; tiêu ; ngò rí</t>
+  </si>
+  <si>
+    <t>Fat Choy Soup</t>
+  </si>
+  <si>
+    <t>fairy's hair ; American corn ; carrot ; mushroom ; string bean ; fried onion ; pepper ; coriander</t>
+  </si>
+  <si>
+    <t>SÚP NẤM TUYẾT HẠT SEN</t>
+  </si>
+  <si>
+    <t>nấm tuyết ; hạt sen ; nấm cà rốt ; đậu que ; hành phi ; tiêu; ngò rí .</t>
+  </si>
+  <si>
+    <t>Lotus seed &amp; White Wood-ear Mushroom Soup</t>
+  </si>
+  <si>
+    <t>White wood-ear mushroom ; Lotus seeds ; carrot mushrooms ; string bean ; fried onion ; pepper; Coriander.</t>
+  </si>
+  <si>
     <t>saltDish</t>
   </si>
   <si>
+    <t>RAU MUỐNG XÀO TỎI</t>
+  </si>
+  <si>
+    <t>Stir-fried Water Spinach with Garlic</t>
+  </si>
+  <si>
+    <t>RAU MUỐNG XÀO NẤM</t>
+  </si>
+  <si>
+    <t>Stir-fried Water Spinach with Mushrooms</t>
+  </si>
+  <si>
+    <t>RAU XÀO THẬP CẨM</t>
+  </si>
+  <si>
+    <t>Mixed Stir-fried Veggies</t>
+  </si>
+  <si>
+    <t>RAU LUỘC KHO QUẸT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boiled Veggie with Caramelized Salted Sauce </t>
+  </si>
+  <si>
+    <t>CẢI THÌA SỐT NẤM ĐÔNG CÔ</t>
+  </si>
+  <si>
+    <t>Bok-choy with Shiitake Sauce</t>
+  </si>
+  <si>
+    <t>NẤM SỐT TIÊU ĐEN</t>
+  </si>
+  <si>
+    <t>Stir-fried Mushroom with Black Pepper Sauce</t>
+  </si>
+  <si>
+    <t>ĐẬU HỦ SỐT TỨ XUYÊN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapo Tofu </t>
+  </si>
+  <si>
+    <t>ĐẬU HỦ CHƯNG TƯƠNG</t>
+  </si>
+  <si>
+    <t>Steamed Tofu with Salted Soybean Sauce</t>
+  </si>
+  <si>
+    <t>ĐẬU HỦ XỐC SA TẾ</t>
+  </si>
+  <si>
+    <t>Satay Tofu</t>
+  </si>
+  <si>
+    <t>NẤM RƠM KHO TIÊU</t>
+  </si>
+  <si>
+    <t>Braised Straw mushroom with Pepper</t>
+  </si>
+  <si>
+    <t>CHÂN NẤM KHO GỪNG</t>
+  </si>
+  <si>
+    <t>Braised Mushroom with Ginger</t>
+  </si>
+  <si>
     <t>dessert</t>
   </si>
   <si>
+    <t>Chè tuyết yến dưỡng nhan</t>
+  </si>
+  <si>
+    <t>Tuyết yếu ; tuyết liên tử ; nhựa đào ; kỷ tử ; táo đỏ ; long nhãn</t>
+  </si>
+  <si>
+    <t>Gum Tragacanth Refresh Beauty Sweet Soup</t>
+  </si>
+  <si>
+    <t>Weak snow; snow lotus ; peach resin ; Goji berries ; Red Apple ; Longan</t>
+  </si>
+  <si>
+    <t>Chè hạt sen đông trùng hạ thảo</t>
+  </si>
+  <si>
+    <t>hạt sen; kỷ tử ; táo đỏ ; đông trùng hạ thảo</t>
+  </si>
+  <si>
+    <t>Lotus Seed Sweet Soup with Cordyceps</t>
+  </si>
+  <si>
+    <t>Lotus seeds; Goji berries ; Red Apple ; Cordyceps</t>
+  </si>
+  <si>
+    <t>Sữa chua dâu tằm</t>
+  </si>
+  <si>
+    <t>sữa chua ; mức dâu tằm ; mức tắc rim ; đá bào</t>
+  </si>
+  <si>
+    <t>Mulberry Yogurt</t>
+  </si>
+  <si>
+    <t>yogurt ; mulberry level ; rim occlusion level; grinded ice</t>
+  </si>
+  <si>
+    <t>Panna Cotta (Việt quất, chanh dây, ổi, đào, dâu tằm)</t>
+  </si>
+  <si>
+    <t>được nấu từ sữa đậu nành nguyên chất ; gelatin dùng kèm với cái loại mức trái cây</t>
+  </si>
+  <si>
+    <t>Panna Cotta (Blueberry, Passionfruit, Guava, Peach, Mulberry)</t>
+  </si>
+  <si>
+    <t>Made from pure soy milk; Gelatin served with fruit sauce</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>Cà phê Đen đá | nóng</t>
+  </si>
+  <si>
+    <t>cà phê nguyên chất cùng một chút đường cát</t>
+  </si>
+  <si>
+    <t>Iced | Hot Black Coffee</t>
+  </si>
+  <si>
+    <t>pure coffee with a little granulated sugar</t>
+  </si>
+  <si>
+    <t>Cà phê Sữa đá | nóng</t>
+  </si>
+  <si>
+    <t>cà phê nguyên chất ; sữa đặc</t>
+  </si>
+  <si>
+    <t>Iced | Hot Condensed Milk Coffee</t>
+  </si>
+  <si>
+    <t>pure coffee ; condensed milk</t>
+  </si>
+  <si>
+    <t>Bạc xỉu</t>
+  </si>
+  <si>
+    <t>cà phê nguyên chất ; sữa tươi ; sữa đặc</t>
+  </si>
+  <si>
+    <t>White Coffee</t>
+  </si>
+  <si>
+    <t>pure coffee ; Fresh milk ; condensed milk</t>
+  </si>
+  <si>
+    <t>Cà phê Kem Muối</t>
+  </si>
+  <si>
+    <t>cà phê nguyên chất ; sữa đặc ; kem muối</t>
+  </si>
+  <si>
+    <t>Salted Cream Coffee</t>
+  </si>
+  <si>
+    <t>pure coffee ; condensed milk ; salt cream</t>
+  </si>
+  <si>
+    <t>juice</t>
+  </si>
+  <si>
+    <t>thơm ép</t>
+  </si>
+  <si>
+    <t>nước ép thơm nguyên chất</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>pineapple juice</t>
+  </si>
+  <si>
+    <t>cam ép</t>
+  </si>
+  <si>
+    <t>nước ép cam nguyên chất</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>orange juice</t>
+  </si>
+  <si>
+    <t>dưa hấu</t>
+  </si>
+  <si>
+    <t>nước ép dưa hấu nguyên chất</t>
+  </si>
+  <si>
+    <t>Watermelon</t>
+  </si>
+  <si>
+    <t>watermelon juice</t>
+  </si>
+  <si>
+    <t>chanh dây</t>
+  </si>
+  <si>
+    <t>nước ép chanhc dây cô đặc ; serup chanh dây ; mức chanh dây</t>
+  </si>
+  <si>
+    <t>Passionfruit</t>
+  </si>
+  <si>
+    <t>Passion fruit juice; passion fruit syrup; passion fruit jam</t>
+  </si>
+  <si>
+    <t>mix nước ép nguyên chất của cam và cà rốt</t>
+  </si>
+  <si>
+    <t>Orange Carrot</t>
+  </si>
+  <si>
+    <t>Mix  orange juice and carrot juice</t>
+  </si>
+  <si>
+    <t>thơm cà rốt</t>
+  </si>
+  <si>
+    <t>mix nước ép nguyên chất của thơm và cà rốt</t>
+  </si>
+  <si>
+    <t>Pineapple Carrot</t>
+  </si>
+  <si>
+    <t>mix  pineapple juice and carrot juice</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>Trà</t>
+    <t>TRÀ THẢO MỘC</t>
+  </si>
+  <si>
+    <t>bông cúc ; hoa hồng; kỷ tử ; táo đỏ ; đường phèn ; đông trùng hạ thảo ( có thể dùng nóng hoặc lạnh )</t>
+  </si>
+  <si>
+    <t>Herbal Tea</t>
+  </si>
+  <si>
+    <t>daisies ; rose; Goji berries ;  Apple ; sugar ; Cordyceps (can be used hot or cold)</t>
+  </si>
+  <si>
+    <t>TRÀ ĐÀO CAM SẢ</t>
+  </si>
+  <si>
+    <t>sả đập dập ; trà đào ; serup đào ; mức đào ; nước cốt tắc ; đào miếng</t>
+  </si>
+  <si>
+    <t>Orange Lemongrass Peach Tea</t>
+  </si>
+  <si>
+    <t>crushed lemongrass; peach tea ; peach syrup ; peach jam ; kumquat juice ;sliced peach</t>
+  </si>
+  <si>
+    <t>TRÀ LÀI LỆ CHI</t>
+  </si>
+  <si>
+    <t>serup vải ; vải tươi</t>
+  </si>
+  <si>
+    <t>Lychee Jasmine Tea</t>
+  </si>
+  <si>
+    <t>Lychee syrup ; fresh lychee</t>
+  </si>
+  <si>
+    <t>TRÀ ỔI HỒNG</t>
+  </si>
+  <si>
+    <t>nước cốt tắc ; mức ổi ; serup ổi ; ổi tươi</t>
+  </si>
+  <si>
+    <t>Pink Guava Tea</t>
+  </si>
+  <si>
+    <t>kumquat juice ; guava jam ; guava syrup; fresh guava</t>
+  </si>
+  <si>
+    <t>TRÀ GỪNG MẬT ONG</t>
+  </si>
+  <si>
+    <t>trà gừng ; mật ong ; gừng cắt lát</t>
+  </si>
+  <si>
+    <t>Honey Ginger Hot Tea</t>
+  </si>
+  <si>
+    <t>ginger tea ; honey ; sliced ginger</t>
+  </si>
+  <si>
+    <t>TRÀ TẮC XÍ MUỘI</t>
+  </si>
+  <si>
+    <t>xí muội ; trà lipton ; nước cốt tắc ; mức tắc rim</t>
+  </si>
+  <si>
+    <t>Sooty Kumquat Tea</t>
+  </si>
+  <si>
+    <t>soot ; lipton tea ; kumquat juice ; Kumquat Marmalade</t>
+  </si>
+  <si>
+    <t>TRÀ LÀI HẠT ĐÁC</t>
+  </si>
+  <si>
+    <t>nước ép thơm thêm hạt đác rim thơm</t>
+  </si>
+  <si>
+    <t>Arenga pinnata Jasmine Tea</t>
+  </si>
+  <si>
+    <t>pineapple juice added with arenga pinnata</t>
+  </si>
+  <si>
+    <t>thaiTea</t>
+  </si>
+  <si>
+    <t>Trà sữa Thái xanh</t>
+  </si>
+  <si>
+    <t>Thai Green Milk Tea</t>
+  </si>
+  <si>
+    <t>Trà Thái xanh chanh mật ong</t>
+  </si>
+  <si>
+    <t>Thai green tea with lemon and honey</t>
+  </si>
+  <si>
+    <t>soda</t>
+  </si>
+  <si>
+    <t>Soda Biển xanh</t>
+  </si>
+  <si>
+    <t>Blue ocean</t>
+  </si>
+  <si>
+    <t>Soda Chanh dây nhiệt đới</t>
+  </si>
+  <si>
+    <t>tropical passionfruit</t>
+  </si>
+  <si>
+    <t>Soda Chanh tươi</t>
+  </si>
+  <si>
+    <t>Fresh &amp; sour</t>
+  </si>
+  <si>
+    <t>Soda Việt quất</t>
+  </si>
+  <si>
+    <t>purple dream</t>
+  </si>
+  <si>
+    <t>softdrinks</t>
+  </si>
+  <si>
+    <t>cocacola</t>
+  </si>
+  <si>
+    <t>pepsi</t>
+  </si>
+  <si>
+    <t>7 up</t>
+  </si>
+  <si>
+    <t>sting</t>
+  </si>
+  <si>
+    <t>nước suối</t>
+  </si>
+  <si>
+    <t>mineral water</t>
   </si>
   <si>
     <t>Type</t>
@@ -366,21 +892,6 @@
   </si>
   <si>
     <t>drink</t>
-  </si>
-  <si>
-    <t>juice</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>thaiTea</t>
-  </si>
-  <si>
-    <t>softdrinks</t>
-  </si>
-  <si>
-    <t>soda</t>
   </si>
   <si>
     <t>Food</t>
@@ -400,7 +911,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.00&quot; &quot;[$₫-42A]"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -411,6 +922,12 @@
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -903,159 +1420,180 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1068,7 +1606,7 @@
     <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,7 +1618,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2254,1434 +2794,1929 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.6759259259259" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.3518518518519" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.0740740740741" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6759259259259" style="1" customWidth="1"/>
-    <col min="6" max="6" width="119.212962962963" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.8518518518519" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="12.6759259259259" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5092592592593" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.8611111111111" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.8240740740741" style="1" customWidth="1"/>
+    <col min="5" max="5" width="104.12037037037" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.0462962962963" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6759259259259" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.0740740740741" style="1" customWidth="1"/>
+    <col min="9" max="9" width="151.259259259259" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.0740740740741" style="1" customWidth="1"/>
+    <col min="11" max="11" width="57.7777777777778" style="1" customWidth="1"/>
+    <col min="12" max="16380" width="12.6759259259259" style="1" customWidth="1"/>
+    <col min="16381" max="16384" width="12.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" ht="36" customHeight="1" spans="1:11">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="36" customHeight="1" spans="1:8">
-      <c r="A2" s="8" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="str">
+      <c r="K1" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="36" customHeight="1" spans="1:11">
+      <c r="A2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="15" t="str">
         <f>LOWER(B2)</f>
-        <v>chả giò
-</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="10">
+        <v>chả giò</v>
+      </c>
+      <c r="D2" s="15">
         <v>50000</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="36" customHeight="1" spans="1:11">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="36" customHeight="1" spans="1:8">
-      <c r="A3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10" t="str">
+      <c r="B3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="15" t="str">
         <f t="shared" ref="C3:C41" si="0">LOWER(B3)</f>
-        <v>gỏi cuốn
-</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="10">
+        <v>gỏi cuốn</v>
+      </c>
+      <c r="D3" s="15">
         <v>50000</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="12" t="b">
+      <c r="E3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" ht="36" customHeight="1" spans="1:8">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="10" t="str">
+      <c r="H3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="36" customHeight="1" spans="1:11">
+      <c r="A4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>bì cuốn</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="15">
         <v>50000</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="36" customHeight="1" spans="1:8">
-      <c r="A5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="10" t="str">
+      <c r="G4" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="36" customHeight="1" spans="1:11">
+      <c r="A5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>mẹt cuốn</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="15">
         <v>55000</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="36" customHeight="1" spans="1:8">
-      <c r="A6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="10" t="str">
+      <c r="E5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="36" customHeight="1" spans="1:11">
+      <c r="A6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>bánh xèo</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="15">
         <v>55000</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="36" customHeight="1" spans="1:8">
-      <c r="A7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10" t="str">
+      <c r="E6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" ht="36" customHeight="1" spans="1:11">
+      <c r="A7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>nấm nướng lá lốt</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="15">
         <v>55000</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="36" customHeight="1" spans="1:8">
-      <c r="A8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="10" t="str">
+      <c r="E7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" ht="36" customHeight="1" spans="1:11">
+      <c r="A8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>lẩu nấm tiêu xanh</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="15">
         <v>150000</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="36" customHeight="1" spans="1:8">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="10" t="str">
+      <c r="E8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" ht="36" customHeight="1" spans="1:11">
+      <c r="A9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>lẩu thái</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="15">
         <v>150000</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="36" customHeight="1" spans="1:8">
-      <c r="A10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="10" t="str">
+      <c r="E9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" ht="36" customHeight="1" spans="1:11">
+      <c r="A10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>lẩu sa tế diệu thiện</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="15">
         <v>150000</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" ht="36" customHeight="1" spans="1:8">
-      <c r="A11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="E10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" ht="36" customHeight="1" spans="1:11">
+      <c r="A11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="10" t="str">
+      <c r="B11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>lẩu chao</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="15">
         <v>150000</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="36" customHeight="1" spans="1:8">
-      <c r="A12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="10" t="str">
+      <c r="E11" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" ht="36" customHeight="1" spans="1:11">
+      <c r="A12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>lẩu kim chi hàn quốc</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="D12" s="15">
         <v>150000</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="36" customHeight="1" spans="1:8">
-      <c r="A13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="10" t="str">
+      <c r="E12" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" ht="36" customHeight="1" spans="1:11">
+      <c r="A13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>lẩu uyên ương</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="15">
         <v>250000</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="36" customHeight="1" spans="1:8">
-      <c r="A14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="10" t="str">
+      <c r="E13" s="18"/>
+      <c r="F13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" ht="36" customHeight="1" spans="1:11">
+      <c r="A14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>cơm chiên rong biển</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="15">
         <v>55000</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="36" customHeight="1" spans="1:8">
-      <c r="A15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="10" t="str">
+      <c r="E14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" ht="36" customHeight="1" spans="1:11">
+      <c r="A15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>cơm chiên thơm kiểu thái</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="D15" s="15">
         <v>55000</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="36" customHeight="1" spans="1:8">
-      <c r="A16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="10" t="str">
+      <c r="E15" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" ht="36" customHeight="1" spans="1:11">
+      <c r="A16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>cơm chiên dương châu</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="D16" s="15">
         <v>55000</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="36" customHeight="1" spans="1:8">
-      <c r="A17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="10" t="str">
+      <c r="E16" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" ht="36" customHeight="1" spans="1:11">
+      <c r="A17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>cơm trộn hàn quốc</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="D17" s="15">
         <v>59000</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="36" customHeight="1" spans="1:8">
-      <c r="A18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="10" t="str">
+      <c r="E17" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" ht="36" customHeight="1" spans="1:11">
+      <c r="A18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>cơm nấm lúc lắc &amp; canh rau củ</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18" s="15">
         <v>55000</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" ht="36" customHeight="1" spans="1:11">
+      <c r="A19" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="36" customHeight="1" spans="1:8">
-      <c r="A19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="10" t="str">
+      <c r="B19" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>cơm cà ri &amp; canh rau củ</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="D19" s="15">
         <v>55000</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="36" customHeight="1" spans="1:8">
-      <c r="A20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="10" t="str">
+      <c r="E19" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" ht="36" customHeight="1" spans="1:11">
+      <c r="A20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>miến trộn</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="D20" s="15">
         <v>55000</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="36" customHeight="1" spans="1:8">
-      <c r="A21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="10" t="str">
+      <c r="E20" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" ht="36" customHeight="1" spans="1:11">
+      <c r="A21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>pad thái</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="15">
         <v>55000</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="36" customHeight="1" spans="1:8">
-      <c r="A22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="10" t="str">
+      <c r="E21" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" ht="36" customHeight="1" spans="1:11">
+      <c r="A22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>hủ tiếu áp chảo</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="D22" s="15">
         <v>55000</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="36" customHeight="1" spans="1:8">
-      <c r="A23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="10" t="str">
+      <c r="E22" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" ht="36" customHeight="1" spans="1:11">
+      <c r="A23" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>mì vàng xào thập cẩm
 quốc</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="D23" s="15">
         <v>55000</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="36" customHeight="1" spans="1:8">
-      <c r="A24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="10" t="str">
+      <c r="E23" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" ht="36" customHeight="1" spans="1:11">
+      <c r="A24" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>mì ý sốt cà chua nấm </v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="10">
+        <v>mì ý sốt cà chua nấm</v>
+      </c>
+      <c r="D24" s="15">
         <v>59000</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="36" customHeight="1" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="10" t="str">
+      <c r="E24" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" ht="36" customHeight="1" spans="1:11">
+      <c r="A25" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>cà ri bánh mì </v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="10">
+        <v>cà ri bánh mì</v>
+      </c>
+      <c r="D25" s="15">
         <v>65000</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="36" customHeight="1" spans="1:8">
-      <c r="A26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="10" t="str">
+      <c r="E25" s="18"/>
+      <c r="F25" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" ht="36" customHeight="1" spans="1:11">
+      <c r="A26" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="15" t="str">
         <f t="shared" si="0"/>
         <v>nấm lúc lắc khoai tây</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="10">
+      <c r="D26" s="15">
         <v>65000</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="36" customHeight="1" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="10" t="str">
+      <c r="E26" s="18"/>
+      <c r="F26" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" ht="36" customHeight="1" spans="1:11">
+      <c r="A27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="15" t="str">
         <f t="shared" si="0"/>
         <v>mì ramen (khô/ nước)</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="15">
         <v>150000</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="36" customHeight="1" spans="1:8">
-      <c r="A28" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="10" t="str">
+      <c r="E27" s="18"/>
+      <c r="F27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" ht="36" customHeight="1" spans="1:11">
+      <c r="A28" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="15" t="str">
         <f t="shared" si="0"/>
         <v>nấm xúc bánh đa</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="10">
+      <c r="D28" s="15">
         <v>150000</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="36" customHeight="1" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="10" t="str">
+      <c r="E28" s="18"/>
+      <c r="F28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" ht="36" customHeight="1" spans="1:11">
+      <c r="A29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="15" t="str">
         <f t="shared" si="0"/>
         <v>đậu hũ non chiên giòn chà bông</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="10">
+      <c r="D29" s="15">
         <v>150000</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="36" customHeight="1" spans="1:8">
-      <c r="A30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="10" t="str">
+      <c r="E29" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" ht="36" customHeight="1" spans="1:11">
+      <c r="A30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="15" t="str">
         <f t="shared" si="0"/>
         <v>nấm bào ngư xốc muối hongkong</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="10">
+      <c r="D30" s="15">
         <v>150000</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="36" customHeight="1" spans="1:8">
-      <c r="A31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="10" t="str">
+      <c r="E30" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" ht="36" customHeight="1" spans="1:11">
+      <c r="A31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="15" t="str">
         <f t="shared" si="0"/>
         <v>đậu non rong biển sốt teriyaki</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="D31" s="15">
         <v>150000</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="36" customHeight="1" spans="1:8">
-      <c r="A32" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="10" t="str">
-        <f>LOWER(B32)</f>
+      <c r="E31" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" ht="36" customHeight="1" spans="1:11">
+      <c r="A32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="15" t="str">
+        <f t="shared" si="0"/>
         <v>khoai tây bọt biển</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="15">
         <v>150000</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="36" customHeight="1" spans="1:8">
-      <c r="A33" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="10" t="str">
-        <f>LOWER(B33)</f>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="36" customHeight="1" spans="1:8">
-      <c r="A34" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="10" t="str">
-        <f>LOWER(B34)</f>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="36" customHeight="1" spans="1:8">
-      <c r="A35" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="10" t="str">
-        <f>LOWER(B35)</f>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="36" customHeight="1" spans="1:8">
-      <c r="A36" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="10" t="str">
+      <c r="E32" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" ht="36" customHeight="1" spans="1:11">
+      <c r="A33" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>canh nấm đậu hủ rong biển</v>
+      </c>
+      <c r="D33" s="15">
+        <v>50000</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" ht="36" customHeight="1" spans="1:11">
+      <c r="A34" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>canh chua nam bộ</v>
+      </c>
+      <c r="D34" s="15">
+        <v>50000</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" ht="36" customHeight="1" spans="1:11">
+      <c r="A35" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>canh cải xanh nấu nấm</v>
+      </c>
+      <c r="D35" s="15">
+        <v>50000</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" ht="36" customHeight="1" spans="1:11">
+      <c r="A36" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="15" t="str">
         <f t="shared" ref="C36:C56" si="1">LOWER(B36)</f>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="36" customHeight="1" spans="1:8">
-      <c r="A37" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="10" t="str">
+        <v>súp tóc tiên</v>
+      </c>
+      <c r="D36" s="15">
+        <v>39000</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" ht="36" customHeight="1" spans="1:11">
+      <c r="A37" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="36" customHeight="1" spans="1:8">
-      <c r="A38" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="10" t="str">
+        <v>súp nấm tuyết hạt sen</v>
+      </c>
+      <c r="D37" s="15">
+        <v>39000</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" ht="36" customHeight="1" spans="1:11">
+      <c r="A38" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="36" customHeight="1" spans="1:8">
-      <c r="A39" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="10" t="str">
+        <v>rau muống xào tỏi</v>
+      </c>
+      <c r="D38" s="15">
+        <v>45000</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" ht="36" customHeight="1" spans="1:11">
+      <c r="A39" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="36" customHeight="1" spans="1:8">
-      <c r="A40" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="10" t="str">
+        <v>rau muống xào nấm</v>
+      </c>
+      <c r="D39" s="15">
+        <v>55000</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" ht="36" customHeight="1" spans="1:11">
+      <c r="A40" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="36" customHeight="1" spans="1:8">
-      <c r="A41" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="10" t="str">
+        <v>rau xào thập cẩm</v>
+      </c>
+      <c r="D40" s="15">
+        <v>55000</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" ht="36" customHeight="1" spans="1:11">
+      <c r="A41" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="36" customHeight="1" spans="1:8">
-      <c r="A42" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="10" t="str">
+        <v>rau luộc kho quẹt</v>
+      </c>
+      <c r="D41" s="15">
+        <v>55000</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" ht="36" customHeight="1" spans="1:11">
+      <c r="A42" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="36" customHeight="1" spans="1:8">
-      <c r="A43" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="10" t="str">
+        <v>cải thìa sốt nấm đông cô</v>
+      </c>
+      <c r="D42" s="15">
+        <v>55000</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" ht="36" customHeight="1" spans="1:11">
+      <c r="A43" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="36" customHeight="1" spans="1:8">
-      <c r="A44" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="10" t="str">
+        <v>nấm sốt tiêu đen</v>
+      </c>
+      <c r="D43" s="15">
+        <v>65000</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" ht="36" customHeight="1" spans="1:11">
+      <c r="A44" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="36" customHeight="1" spans="1:8">
-      <c r="A45" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="10" t="str">
+        <v>đậu hủ sốt tứ xuyên</v>
+      </c>
+      <c r="D44" s="15">
+        <v>55000</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" ht="36" customHeight="1" spans="1:11">
+      <c r="A45" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="36" customHeight="1" spans="1:8">
-      <c r="A46" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="10" t="str">
+        <v>đậu hủ chưng tương</v>
+      </c>
+      <c r="D45" s="15">
+        <v>55000</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" ht="36" customHeight="1" spans="1:11">
+      <c r="A46" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="36" customHeight="1" spans="1:8">
-      <c r="A47" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="10" t="str">
+        <v>đậu hủ xốc sa tế</v>
+      </c>
+      <c r="D46" s="15">
+        <v>55000</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K46" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" ht="36" customHeight="1" spans="1:11">
+      <c r="A47" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" ht="36" customHeight="1" spans="1:8">
-      <c r="A48" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="10" t="str">
+        <v>nấm rơm kho tiêu</v>
+      </c>
+      <c r="D47" s="15">
+        <v>65000</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" ht="36" customHeight="1" spans="1:11">
+      <c r="A48" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" ht="36" customHeight="1" spans="1:8">
-      <c r="A49" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" ht="36" customHeight="1" spans="1:8">
-      <c r="A50" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" ht="36" customHeight="1" spans="1:8">
-      <c r="A51" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" ht="36" customHeight="1" spans="1:8">
-      <c r="A52" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" ht="36" customHeight="1" spans="1:8">
-      <c r="A53" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" ht="36" customHeight="1" spans="1:8">
-      <c r="A54" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" ht="36" customHeight="1" spans="1:8">
-      <c r="A55" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" ht="36" customHeight="1" spans="1:8">
-      <c r="A56" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>lẩu kim chi hàn quốc</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G56" s="13"/>
-      <c r="H56" s="12" t="b">
-        <v>0</v>
+        <v>chân nấm kho gừng</v>
+      </c>
+      <c r="D48" s="15">
+        <v>65000</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" ht="36" customHeight="1" spans="1:11">
+      <c r="A49" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="15" t="str">
+        <f>LOWER(B49)</f>
+        <v>chè tuyết yến dưỡng nhan</v>
+      </c>
+      <c r="D49" s="15">
+        <v>35000</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" ht="36" customHeight="1" spans="1:11">
+      <c r="A50" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="15" t="str">
+        <f>LOWER(B50)</f>
+        <v>chè hạt sen đông trùng hạ thảo</v>
+      </c>
+      <c r="D50" s="15">
+        <v>35000</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" ht="36" customHeight="1" spans="1:11">
+      <c r="A51" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="15" t="str">
+        <f>LOWER(B51)</f>
+        <v>sữa chua dâu tằm</v>
+      </c>
+      <c r="D51" s="15">
+        <v>35000</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" ht="36" customHeight="1" spans="1:11">
+      <c r="A52" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="15" t="str">
+        <f>LOWER(B52)</f>
+        <v>panna cotta (việt quất, chanh dây, ổi, đào, dâu tằm)</v>
+      </c>
+      <c r="D52" s="15">
+        <v>12000</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K52" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A10 A11 A32 A2:A6 A8:A9 A12:A13 A14:A15 A16:A17 A18:A19 A20:A27 A28:A31 A33:A37 A38:A49 A50:A54 A55:A56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A10 A11 A32 A2:A6 A8:A9 A12:A13 A14:A15 A16:A17 A18:A19 A20:A27 A28:A31 A33:A37 A38:A48 A49:A52">
       <formula1>"appetizer,roll,mainDish,hotPot,ricePortion,soup,saltDish,dessert"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_2.svg?alt=media&amp;token=7e45b7a5-98f9-4820-be7d-133437aff9e5"/>
-    <hyperlink ref="G3" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_2.svg?alt=media&amp;token=7e45b7a5-98f9-4820-be7d-133437aff9e5"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F4" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F5" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F6" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F7" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F8" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F9" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F10" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F11" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F12" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F13" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F14" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F15" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F16" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F17" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F18" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F19" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F20" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F21" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F22" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F23" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F24" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F25" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F26" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F27" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F28" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F29" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F30" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F31" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F32" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F33" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F34" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F35" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F36" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F37" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F38" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F39" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F40" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F41" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F42" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F43" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F44" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F45" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F46" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F47" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F48" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F49" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F50" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F51" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
+    <hyperlink ref="F52" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/dieu-thien-restautant.appspot.com/o/mainDishes_1.svg?alt=media&amp;token=ae9d84ce-a6b0-43d4-bfb1-ccad2e974914"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
@@ -3696,142 +4731,838 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="12.6759259259259" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6759259259259" style="4" customWidth="1"/>
+    <col min="2" max="2" width="39.7037037037037" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.6759259259259" style="4" customWidth="1"/>
+    <col min="4" max="4" width="91.3703703703704" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6759259259259" style="4" customWidth="1"/>
+    <col min="7" max="7" width="31.8888888888889" style="4" customWidth="1"/>
+    <col min="8" max="8" width="55.9444444444444" style="4" customWidth="1"/>
+    <col min="9" max="9" width="31.8888888888889" style="4" customWidth="1"/>
+    <col min="10" max="10" width="55.9444444444444" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="12.6759259259259" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" ht="43" customHeight="1" spans="1:10">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="5">
-        <v>550000</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <f>B2</f>
-        <v>Trà</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="6" t="b">
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="35" customHeight="1" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="7">
+        <v>20000</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="G2" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" ht="35" customHeight="1" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="7">
+        <v>25000</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" ht="35" customHeight="1" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="7">
+        <v>35000</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" ht="35" customHeight="1" spans="1:10">
+      <c r="A5" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="7">
+        <v>35000</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" ht="35" customHeight="1" spans="1:10">
+      <c r="A6" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="7">
+        <v>35000</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" ht="35" customHeight="1" spans="1:10">
+      <c r="A7" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="7">
+        <v>35000</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" ht="35" customHeight="1" spans="1:10">
+      <c r="A8" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="7">
+        <v>35000</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" ht="35" customHeight="1" spans="1:10">
+      <c r="A9" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="7">
+        <v>35000</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" ht="35" customHeight="1" spans="1:10">
+      <c r="A10" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="7">
+        <v>35000</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" ht="35" customHeight="1" spans="1:10">
+      <c r="A11" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="7">
+        <v>35000</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" ht="35" customHeight="1" spans="1:10">
+      <c r="A12" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="7">
+        <v>35000</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" ht="35" customHeight="1" spans="1:10">
+      <c r="A13" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="7">
+        <v>35000</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" ht="35" customHeight="1" spans="1:10">
+      <c r="A14" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="7">
+        <v>35000</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" ht="35" customHeight="1" spans="1:10">
+      <c r="A15" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="7">
+        <v>35000</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" ht="35" customHeight="1" spans="1:10">
+      <c r="A16" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="7">
+        <v>35000</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" ht="35" customHeight="1" spans="1:10">
+      <c r="A17" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="7">
+        <v>35000</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" ht="35" customHeight="1" spans="1:10">
+      <c r="A18" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="7">
+        <v>35000</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" ht="35" customHeight="1" spans="1:10">
+      <c r="A19" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="7">
+        <v>35000</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" ht="35" customHeight="1" spans="1:10">
+      <c r="A20" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="7">
+        <v>35000</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" ht="35" customHeight="1" spans="1:10">
+      <c r="A21" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="7">
+        <v>30000</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" ht="35" customHeight="1" spans="1:10">
+      <c r="A22" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="7">
+        <v>30000</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" ht="35" customHeight="1" spans="1:10">
+      <c r="A23" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="7">
+        <v>30000</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" ht="35" customHeight="1" spans="1:10">
+      <c r="A24" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="7">
+        <v>30000</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" ht="35" customHeight="1" spans="1:10">
+      <c r="A25" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" s="7">
+        <v>18000</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" ht="35" customHeight="1" spans="1:10">
+      <c r="A26" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C26" s="7">
+        <v>18000</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" ht="35" customHeight="1" spans="1:10">
+      <c r="A27" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C27" s="7">
+        <v>18000</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" ht="35" customHeight="1" spans="1:10">
+      <c r="A28" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" s="7">
+        <v>18000</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" ht="35" customHeight="1" spans="1:10">
+      <c r="A29" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C29" s="7">
+        <v>12000</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="J29" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"tea,juice,coffee,thaiTea,softdrinks,soda,Creative Tea"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A11 A12:A18 A19:A20 A21:A24 A25:A29">
       <formula1>"tea,juice,coffee,thaiTea,softdrinks,soda"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3851,7 +5582,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
@@ -3861,7 +5592,7 @@
   <sheetData>
     <row r="1" ht="13.65" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3872,10 +5603,10 @@
     </row>
     <row r="2" ht="13.65" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3883,10 +5614,10 @@
     </row>
     <row r="3" ht="13.65" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3894,10 +5625,10 @@
     </row>
     <row r="4" ht="13.65" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -3905,10 +5636,10 @@
     </row>
     <row r="5" ht="13.65" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -3916,10 +5647,10 @@
     </row>
     <row r="6" ht="13.65" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>278</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -3927,10 +5658,10 @@
     </row>
     <row r="7" ht="13.65" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3938,10 +5669,10 @@
     </row>
     <row r="8" ht="13.65" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3949,10 +5680,10 @@
     </row>
     <row r="9" ht="13.65" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3960,10 +5691,10 @@
     </row>
     <row r="10" ht="13.65" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>279</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3971,10 +5702,10 @@
     </row>
     <row r="11" ht="13.65" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3982,10 +5713,10 @@
     </row>
     <row r="12" ht="13.65" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -3993,10 +5724,10 @@
     </row>
     <row r="13" ht="13.65" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4004,10 +5735,10 @@
     </row>
     <row r="14" ht="13.65" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4015,10 +5746,10 @@
     </row>
     <row r="15" ht="13.65" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>108</v>
+        <v>268</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4026,10 +5757,10 @@
     </row>
     <row r="16" ht="13.65" customHeight="1" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>109</v>
+        <v>259</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4067,10 +5798,10 @@
   <sheetData>
     <row r="1" ht="13.65" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -4078,10 +5809,10 @@
     </row>
     <row r="2" ht="13.65" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4089,10 +5820,10 @@
     </row>
     <row r="3" ht="13.65" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4100,10 +5831,10 @@
     </row>
     <row r="4" ht="13.65" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4111,10 +5842,10 @@
     </row>
     <row r="5" ht="13.65" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -4122,10 +5853,10 @@
     </row>
     <row r="6" ht="13.65" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>102</v>
+        <v>278</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>268</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -4133,10 +5864,10 @@
     </row>
     <row r="7" ht="13.65" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>259</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4144,7 +5875,7 @@
     </row>
     <row r="8" ht="13.65" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4153,7 +5884,7 @@
     </row>
     <row r="9" ht="13.65" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4162,7 +5893,7 @@
     </row>
     <row r="10" ht="13.65" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>103</v>
+        <v>279</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/public/data/menu.xlsx
+++ b/public/data/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="1" r:id="rId1"/>
@@ -4523,7 +4523,7 @@
         <v>168</v>
       </c>
       <c r="C49" s="15" t="str">
-        <f>LOWER(B49)</f>
+        <f t="shared" si="1"/>
         <v>chè tuyết yến dưỡng nhan</v>
       </c>
       <c r="D49" s="15">
@@ -4559,7 +4559,7 @@
         <v>172</v>
       </c>
       <c r="C50" s="15" t="str">
-        <f>LOWER(B50)</f>
+        <f t="shared" si="1"/>
         <v>chè hạt sen đông trùng hạ thảo</v>
       </c>
       <c r="D50" s="15">
@@ -4595,7 +4595,7 @@
         <v>176</v>
       </c>
       <c r="C51" s="15" t="str">
-        <f>LOWER(B51)</f>
+        <f t="shared" si="1"/>
         <v>sữa chua dâu tằm</v>
       </c>
       <c r="D51" s="15">
@@ -4631,7 +4631,7 @@
         <v>180</v>
       </c>
       <c r="C52" s="15" t="str">
-        <f>LOWER(B52)</f>
+        <f t="shared" si="1"/>
         <v>panna cotta (việt quất, chanh dây, ổi, đào, dâu tằm)</v>
       </c>
       <c r="D52" s="15">
@@ -4733,8 +4733,8 @@
   </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15.75" customHeight="1"/>
@@ -5582,7 +5582,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
@@ -5787,7 +5787,7 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>

--- a/public/data/menu.xlsx
+++ b/public/data/menu.xlsx
@@ -8,13 +8,15 @@
     <sheet state="visible" name="Category" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Helper" sheetId="4" r:id="rId7"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Food!$A$1:$K$58</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="328">
   <si>
     <t>Category</t>
   </si>
@@ -46,9 +48,69 @@
     <t>Favorite</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>PAD thái</t>
+  </si>
+  <si>
+    <t>hủ tiếu, giá đỗ, hẹ, đậu hũ chiên, nấm chiên, xốt me, dùng kèm lạc rang, ớt, chanh.</t>
+  </si>
+  <si>
+    <t>korean kimchi hot pot</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/dacbiet%2FPad%20Tha%CC%81i_dacbiet.jpg?alt=media&amp;token=3792ee20-4dcc-4281-a66a-1d17e489ab13</t>
+  </si>
+  <si>
+    <t>ĐẬU HŨ NON CHIÊN GIÒN CHÀ BÔNG</t>
+  </si>
+  <si>
+    <t>đậu hủ non, chà bông chay, rong biển, mỡ hành dùng kèm với mayonnaise tương ớt</t>
+  </si>
+  <si>
+    <t>Fried Young Tofu with Meat floss</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/dacbiet%2F%C4%90a%CC%A3%CC%82u%20hu%CC%83%20non%20chie%CC%82n%20gio%CC%80n%20cha%CC%80%20bo%CC%82ng_dacbiet.jpg?alt=media&amp;token=645ab2ed-c398-4342-bd28-3c41ce7c2e0c</t>
+  </si>
+  <si>
+    <t>ĐẬU NON RONG BIỂN SỐT TERIYAKI</t>
+  </si>
+  <si>
+    <t>đậu hủ non cuộn rong biển chiên giòn, sốt teriyaki</t>
+  </si>
+  <si>
+    <t>Seaweed rolled Young Tofu &amp; Teriyaki Sauce</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/dacbiet%2F%C4%90a%CC%A3%CC%82u%20hu%CC%83%20non%20rong%20bie%CC%82%CC%89n%20so%CC%82%CC%81t%20Teriyaki_dacbiet.jpg?alt=media&amp;token=0e241623-8b85-4ba3-85ad-3d8b61a3b173</t>
+  </si>
+  <si>
+    <t>KHOAI TÂY BỌT BIỂN</t>
+  </si>
+  <si>
+    <t>khoai tây ; chà bông chay ; rong biển dùng với mayonnaise tương ớt</t>
+  </si>
+  <si>
+    <t>spongy spongy potato</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/khaivi%2FKhoai%20ta%CC%82y%20bo%CC%A3t%20bie%CC%82%CC%89n_khaivi.jpg?alt=media&amp;token=36f0a7a6-db84-4900-a69c-34cc66617d56</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
+    <t>Nấm xúc bánh đa</t>
+  </si>
+  <si>
+    <t>Stir-fried Mushrooms served with Sesame Rice Crackers</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/khaivi%2FNa%CC%82%CC%81m%20xu%CC%81c%20ba%CC%81nh%20%C4%91a_monkhaivi.jpg?alt=media&amp;token=efc9ec85-3da1-42b0-a0f6-c8c1d5147086</t>
+  </si>
+  <si>
     <t>GỎI NẤM BÀO NGƯ XÉ TRỘN</t>
   </si>
   <si>
@@ -127,6 +189,9 @@
     <t>Spring Roll</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/moncuon%2Fcha%CC%89%20gio%CC%80_moncuon.jpg?alt=media&amp;token=a75f9867-69e2-437b-a14d-74b3f08f7161</t>
+  </si>
+  <si>
     <t>gỏi cuốn</t>
   </si>
   <si>
@@ -241,7 +306,7 @@
     <t>nước lẩu kim chi ; rau bắp cải tím ; rau bắp cải thảo ; nấm bào ngư dùng với mì hàn quốc</t>
   </si>
   <si>
-    <t>korean kimchi hot pot</t>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/monlau%2Fla%CC%82%CC%89u%20kim%20chi-monlau.jpg?alt=media&amp;token=f8045917-53be-4d54-8783-9471cc306036</t>
   </si>
   <si>
     <t>lẩu uyên ương</t>
@@ -307,6 +372,9 @@
     <t>saute dice mushroom rice &amp; curry soup</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/monchinh%2FCo%CC%9Bm%20na%CC%82%CC%81m%20lu%CC%81c%20la%CC%86%CC%81c_comphan.jpg?alt=media&amp;token=336c0854-6398-46f5-bda4-68b4d7b9f264</t>
+  </si>
+  <si>
     <t>cơm cà ri &amp; canh rau củ</t>
   </si>
   <si>
@@ -316,16 +384,16 @@
     <t>curry rice &amp; veggy soup</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/monchinh%2FCo%CC%9Bm%20ca%CC%80%20ri_comphan.jpg?alt=media&amp;token=97a3cb45-96b9-413c-aa89-da669665f288</t>
+  </si>
+  <si>
     <t>MIẾN TRỘN</t>
   </si>
   <si>
     <t>miến Hàn Quốc, cải thìa, bắp cải tím, cà rốt, nấm bào ngư chiên, xốt miến trộn.</t>
   </si>
   <si>
-    <t>PAD thái</t>
-  </si>
-  <si>
-    <t>hủ tiếu, giá đỗ, hẹ, đậu hũ chiên, nấm chiên, xốt me, dùng kèm lạc rang, ớt, chanh.</t>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/monchinh%2FMie%CC%82%CC%81n%20tro%CC%A3%CC%82n_monchinh.jpg?alt=media&amp;token=393756ca-c3e1-4280-b271-92e3143fd814</t>
   </si>
   <si>
     <t>HỦ TIẾU ÁP CHẢO</t>
@@ -334,6 +402,9 @@
     <t>Hủ tiếu, ớt chuông, cải thảo, hành tây, cải thài, đậu hũ chiên, nấm chiên, tỏi phi.</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/monchinh%2FHu%CC%89%20tie%CC%82%CC%81u%20a%CC%81p%20cha%CC%89o_monchinh.jpg?alt=media&amp;token=58f6d55b-9338-47d8-9020-aefd670886e2</t>
+  </si>
+  <si>
     <t>MÌ vàng XÀO THẬP CẨM</t>
   </si>
   <si>
@@ -355,30 +426,21 @@
     <t>CÀ RI BÁNH MÌ</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/monchinh%2FCa%CC%80%20ri%20ba%CC%81nh%20mi%CC%80_monchinh.jpg?alt=media&amp;token=a3c8c9ed-fbab-438a-b731-bb0ddc048e50</t>
+  </si>
+  <si>
     <t>NẤm lÚC LẮC KHOAI TÂY</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/monchinh%2FNa%CC%82%CC%81m%20lu%CC%81c%20la%CC%86%CC%81c-khoai%20ta%CC%82y_monchinh.JPG?alt=media&amp;token=f7791b30-7bfa-4b02-860c-528b01a2a6b8</t>
+  </si>
+  <si>
     <t>Mì ramen (Khô/ nước)</t>
   </si>
   <si>
     <t>vegan ramen ( dry / soup )</t>
   </si>
   <si>
-    <t>Nấm xúc bánh đa</t>
-  </si>
-  <si>
-    <t>Stir-fried Mushrooms served with Sesame Rice Crackers</t>
-  </si>
-  <si>
-    <t>ĐẬU HŨ NON CHIÊN GIÒN CHÀ BÔNG</t>
-  </si>
-  <si>
-    <t>đậu hủ non, chà bông chay, rong biển, mỡ hành dùng kèm với mayonnaise tương ớt</t>
-  </si>
-  <si>
-    <t>Fried Young Tofu with Meat floss</t>
-  </si>
-  <si>
     <t>NẤM bào ngư xốc muối hongkong</t>
   </si>
   <si>
@@ -388,22 +450,7 @@
     <t>HongKong Salted Oyster Mushrooms</t>
   </si>
   <si>
-    <t>ĐẬU NON RONG BIỂN SỐT TERIYAKI</t>
-  </si>
-  <si>
-    <t>đậu hủ non cuộn rong biển chiên giòn, sốt teriyaki</t>
-  </si>
-  <si>
-    <t>Seaweed rolled Young Tofu &amp; Teriyaki Sauce</t>
-  </si>
-  <si>
-    <t>KHOAI TÂY BỌT BIỂN</t>
-  </si>
-  <si>
-    <t>khoai tây ; chà bông chay ; rong biển dùng với mayonnaise tương ớt</t>
-  </si>
-  <si>
-    <t>spongy spongy potato</t>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/dacbiet%2FNa%CC%82%CC%81m%20ba%CC%80o%20ngu%CC%9B%20xo%CC%82%CC%81c%20muo%CC%82%CC%81i%20HongKong_dacbiet.jpg?alt=media&amp;token=7158a1fe-cd82-4452-a322-31ac284da192</t>
   </si>
   <si>
     <t>soup</t>
@@ -475,6 +522,9 @@
     <t>Stir-fried Water Spinach with Garlic</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/monman%2Frau%20muo%CC%82%CC%81ng%20xa%CC%80o%20to%CC%89i_monxao.jpg?alt=media&amp;token=2da8f0f4-0282-4ae1-ba5f-1c7fb0c1c4d3</t>
+  </si>
+  <si>
     <t>RAU MUỐNG XÀO NẤM</t>
   </si>
   <si>
@@ -508,6 +558,9 @@
     <t>Bok-choy with Shiitake Sauce</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/monman%2FCa%CC%89i%20thi%CC%80a%20so%CC%82%CC%81t%20na%CC%82%CC%81m%20%C4%91o%CC%82ng%20co%CC%82_monman.JPG?alt=media&amp;token=b3e282e4-4ca1-4029-ba19-b514d3c6840e</t>
+  </si>
+  <si>
     <t>NẤM SỐT TIÊU ĐEN</t>
   </si>
   <si>
@@ -559,6 +612,9 @@
     <t>Braised Mushroom with Ginger</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/monman%2FCha%CC%82n%20na%CC%82%CC%81m%20kho%20gu%CC%9B%CC%80ng_monman3871.JPG?alt=media&amp;token=0a3650e7-4c60-43ce-a4f4-5ea5326743f0</t>
+  </si>
+  <si>
     <t>dessert</t>
   </si>
   <si>
@@ -604,9 +660,255 @@
     <t>được nấu từ sữa đậu nành nguyên chất ; gelatin dùng kèm với cái loại mức trái cây</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/trangmieng%2Fpannacotta-trangmieng.jpg?alt=media&amp;token=a3dae487-b05d-49fb-a751-1458e12c0eff</t>
+  </si>
+  <si>
     <t>Image_preview</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>TRÀ THẢO MỘC</t>
+  </si>
+  <si>
+    <t>bông cúc ; hoa hồng; kỷ tử ; táo đỏ ; đường phèn ; đông trùng hạ thảo ( có thể dùng nóng hoặc lạnh )</t>
+  </si>
+  <si>
+    <t>Herbal Tea</t>
+  </si>
+  <si>
+    <t>daisies ; rose; Goji berries ; Apple ; sugar ; Cordyceps (can be used hot or cold)</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_trasangtao%2FTra%CC%80%20tha%CC%89o%20mo%CC%A3%CC%82c_trasangtao.JPG?alt=media&amp;token=5c3c14e0-f95d-4fe6-9512-dd21a30073aa</t>
+  </si>
+  <si>
+    <t>TRÀ ĐÀO CAM SẢ</t>
+  </si>
+  <si>
+    <t>sả đập dập ; trà đào ; serup đào ; mức đào ; nước cốt tắc ; đào miếng</t>
+  </si>
+  <si>
+    <t>Orange Lemongrass Peach Tea</t>
+  </si>
+  <si>
+    <t>crushed lemongrass; peach tea ; peach syrup ; peach jam ; kumquat juice ;sliced peach</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_trasangtao%2FTra%CC%80%20%C4%91a%CC%80o%20cam%20sa%CC%89_trasangtao.JPG?alt=media&amp;token=304c914f-9aaf-4be4-b833-40e5a5ec5bd1</t>
+  </si>
+  <si>
+    <t>TRÀ LÀI LỆ CHI</t>
+  </si>
+  <si>
+    <t>serup vải ; vải tươi</t>
+  </si>
+  <si>
+    <t>Lychee Jasmine Tea</t>
+  </si>
+  <si>
+    <t>Lychee syrup ; fresh lychee</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_trasangtao%2FTra%CC%80%20la%CC%80i%20le%CC%A3%CC%82%20chi_trasangtao.JPG?alt=media&amp;token=7e11fc08-31b8-4190-a6d0-d4b30f58a687</t>
+  </si>
+  <si>
+    <t>TRÀ ỔI HỒNG</t>
+  </si>
+  <si>
+    <t>nước cốt tắc ; mức ổi ; serup ổi ; ổi tươi</t>
+  </si>
+  <si>
+    <t>Pink Guava Tea</t>
+  </si>
+  <si>
+    <t>kumquat juice ; guava jam ; guava syrup; fresh guava</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_trasangtao%2FTra%CC%80%20o%CC%82%CC%89i%20ho%CC%82%CC%80ng_trasangtao.JPG?alt=media&amp;token=3333eb63-9ab5-43dc-8fae-8fa27f4ce823</t>
+  </si>
+  <si>
+    <t>TRÀ GỪNG MẬT ONG</t>
+  </si>
+  <si>
+    <t>trà gừng ; mật ong ; gừng cắt lát</t>
+  </si>
+  <si>
+    <t>Honey Ginger Hot Tea</t>
+  </si>
+  <si>
+    <t>ginger tea ; honey ; sliced ginger</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_trasangtao%2FTra%CC%80%20gu%CC%9B%CC%80ng%20ma%CC%A3%CC%82t%20ong_trasangtao.JPG?alt=media&amp;token=0390f4aa-02a4-4d1a-9cc0-70b2f648bb41</t>
+  </si>
+  <si>
+    <t>TRÀ TẮC XÍ MUỘI</t>
+  </si>
+  <si>
+    <t>xí muội ; trà lipton ; nước cốt tắc ; mức tắc rim</t>
+  </si>
+  <si>
+    <t>Sooty Kumquat Tea</t>
+  </si>
+  <si>
+    <t>soot ; lipton tea ; kumquat juice ; Kumquat Marmalade</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_trasangtao%2FTra%CC%80%20ta%CC%86%CC%81c%20xi%CC%81%20muo%CC%A3%CC%82i_trasangtao.JPG?alt=media&amp;token=08ed6df7-0383-4921-9140-b0cda52c14f5</t>
+  </si>
+  <si>
+    <t>TRÀ LÀI HẠT ĐÁC</t>
+  </si>
+  <si>
+    <t>nước ép thơm thêm hạt đác rim thơm</t>
+  </si>
+  <si>
+    <t>Arenga pinnata Jasmine Tea</t>
+  </si>
+  <si>
+    <t>pineapple juice added with arenga pinnata</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_trasangtao%2FTra%CC%80%20la%CC%80i%20ha%CC%A3t%20%C4%91a%CC%81c_trasangtao.JPG?alt=media&amp;token=9307f7d8-e258-4105-be6e-ff60a7174fb1</t>
+  </si>
+  <si>
+    <t>juice</t>
+  </si>
+  <si>
+    <t>thơm ép</t>
+  </si>
+  <si>
+    <t>nước ép thơm nguyên chất</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>pineapple juice</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_nuocep%2Fthomep_nuocep.jpg?alt=media&amp;token=6de3e059-83e3-40f2-9290-f74289212e99</t>
+  </si>
+  <si>
+    <t>cam ép</t>
+  </si>
+  <si>
+    <t>nước ép cam nguyên chất</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>orange juice</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_nuocep%2Fnuoc-ep-cam-tuoi-thom-ngon-tai-nha.jpg?alt=media&amp;token=67b7bf76-20fa-4a61-942b-8597afbeb776</t>
+  </si>
+  <si>
+    <t>dưa hấu</t>
+  </si>
+  <si>
+    <t>nước ép dưa hấu nguyên chất</t>
+  </si>
+  <si>
+    <t>Watermelon</t>
+  </si>
+  <si>
+    <t>watermelon juice</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_nuocep%2Fduahau_nuocep%202.jpg?alt=media&amp;token=366c2c11-53dd-4b3c-a7a0-5fd9f4ece395</t>
+  </si>
+  <si>
+    <t>chanh dây</t>
+  </si>
+  <si>
+    <t>nước ép chanhc dây cô đặc ; serup chanh dây ; mức chanh dây</t>
+  </si>
+  <si>
+    <t>Passionfruit</t>
+  </si>
+  <si>
+    <t>Passion fruit juice; passion fruit syrup; passion fruit jam</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_nuocep%2Fchanhday_nuocep.jpg?alt=media&amp;token=39578f10-f292-45e2-9ea1-9b9a60a9e554</t>
+  </si>
+  <si>
+    <t>thơm cà rốt</t>
+  </si>
+  <si>
+    <t>mix nước ép nguyên chất của thơm và cà rốt</t>
+  </si>
+  <si>
+    <t>Pineapple Carrot</t>
+  </si>
+  <si>
+    <t>mix pineapple juice and carrot juice</t>
+  </si>
+  <si>
+    <t>soda</t>
+  </si>
+  <si>
+    <t>Soda Biển xanh</t>
+  </si>
+  <si>
+    <t>Blue ocean</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_soda%2FSoda%20Bie%CC%82%CC%89n%20xanh_soda.jpg?alt=media&amp;token=cfa0b542-efbd-459d-8bc4-1c6c43447b2f</t>
+  </si>
+  <si>
+    <t>Soda Chanh dây nhiệt đới</t>
+  </si>
+  <si>
+    <t>tropical passionfruit</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_soda%2FSoda%20Chanh%20da%CC%82y_soda.jpg?alt=media&amp;token=6d80ab54-7a51-4f08-be6f-884605b1b178</t>
+  </si>
+  <si>
+    <t>Soda Chanh tươi</t>
+  </si>
+  <si>
+    <t>Fresh &amp; sour</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_soda%2FSoda%20Chanh%20tu%CC%9Bo%CC%9Bi_soda.jpg?alt=media&amp;token=df5eccd2-5139-4157-90ac-ebc1f669cdff</t>
+  </si>
+  <si>
+    <t>Soda Việt quất</t>
+  </si>
+  <si>
+    <t>purple dream</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_soda%2FSoda%20Vie%CC%A3%CC%82t%20qua%CC%82%CC%81t_Soda.jpg?alt=media&amp;token=8e6507ad-71a2-42fb-92a6-ab76677c9f5e</t>
+  </si>
+  <si>
+    <t>thaiTea</t>
+  </si>
+  <si>
+    <t>Trà sữa Thái xanh</t>
+  </si>
+  <si>
+    <t>Thai Green Milk Tea</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_trathai%2FTra%CC%80%20su%CC%9B%CC%83a%20Tha%CC%81i%20xanh_trathai.JPG?alt=media&amp;token=f3e3584a-9151-4d09-99e4-bf7c24295e76</t>
+  </si>
+  <si>
+    <t>Trà Thái xanh chanh mật ong</t>
+  </si>
+  <si>
+    <t>Thai green tea with lemon and honey</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_trathai%2FTra%CC%80%20Tha%CC%81i%20xanh%20chanh%20ma%CC%A3%CC%82t%20ong_trathai.JPG?alt=media&amp;token=1a479f2b-2d4d-4076-a70f-45e8bdc00714</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
@@ -656,249 +958,6 @@
   </si>
   <si>
     <t>pure coffee ; condensed milk ; salt cream</t>
-  </si>
-  <si>
-    <t>juice</t>
-  </si>
-  <si>
-    <t>thơm ép</t>
-  </si>
-  <si>
-    <t>nước ép thơm nguyên chất</t>
-  </si>
-  <si>
-    <t>Pineapple</t>
-  </si>
-  <si>
-    <t>pineapple juice</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_nuocep%2Fthomep_nuocep.jpg?alt=media&amp;token=6de3e059-83e3-40f2-9290-f74289212e99</t>
-  </si>
-  <si>
-    <t>cam ép</t>
-  </si>
-  <si>
-    <t>nước ép cam nguyên chất</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>orange juice</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_nuocep%2Fnuoc-ep-cam-tuoi-thom-ngon-tai-nha.jpg?alt=media&amp;token=67b7bf76-20fa-4a61-942b-8597afbeb776</t>
-  </si>
-  <si>
-    <t>dưa hấu</t>
-  </si>
-  <si>
-    <t>nước ép dưa hấu nguyên chất</t>
-  </si>
-  <si>
-    <t>Watermelon</t>
-  </si>
-  <si>
-    <t>watermelon juice</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_nuocep%2Fduahau_nuocep%202.jpg?alt=media&amp;token=366c2c11-53dd-4b3c-a7a0-5fd9f4ece395</t>
-  </si>
-  <si>
-    <t>chanh dây</t>
-  </si>
-  <si>
-    <t>nước ép chanhc dây cô đặc ; serup chanh dây ; mức chanh dây</t>
-  </si>
-  <si>
-    <t>Passionfruit</t>
-  </si>
-  <si>
-    <t>Passion fruit juice; passion fruit syrup; passion fruit jam</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_nuocep%2Fchanhday_nuocep.jpg?alt=media&amp;token=39578f10-f292-45e2-9ea1-9b9a60a9e554</t>
-  </si>
-  <si>
-    <t>mix nước ép nguyên chất của cam và cà rốt</t>
-  </si>
-  <si>
-    <t>Orange Carrot</t>
-  </si>
-  <si>
-    <t>Mix orange juice and carrot juice</t>
-  </si>
-  <si>
-    <t>thơm cà rốt</t>
-  </si>
-  <si>
-    <t>mix nước ép nguyên chất của thơm và cà rốt</t>
-  </si>
-  <si>
-    <t>Pineapple Carrot</t>
-  </si>
-  <si>
-    <t>mix pineapple juice and carrot juice</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>TRÀ THẢO MỘC</t>
-  </si>
-  <si>
-    <t>bông cúc ; hoa hồng; kỷ tử ; táo đỏ ; đường phèn ; đông trùng hạ thảo ( có thể dùng nóng hoặc lạnh )</t>
-  </si>
-  <si>
-    <t>Herbal Tea</t>
-  </si>
-  <si>
-    <t>daisies ; rose; Goji berries ; Apple ; sugar ; Cordyceps (can be used hot or cold)</t>
-  </si>
-  <si>
-    <t>TRÀ ĐÀO CAM SẢ</t>
-  </si>
-  <si>
-    <t>sả đập dập ; trà đào ; serup đào ; mức đào ; nước cốt tắc ; đào miếng</t>
-  </si>
-  <si>
-    <t>Orange Lemongrass Peach Tea</t>
-  </si>
-  <si>
-    <t>crushed lemongrass; peach tea ; peach syrup ; peach jam ; kumquat juice ;sliced peach</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_trasangtao%2FTra%CC%80%20%C4%91a%CC%80o%20cam%20sa%CC%89_trasangtao.JPG?alt=media&amp;token=304c914f-9aaf-4be4-b833-40e5a5ec5bd1</t>
-  </si>
-  <si>
-    <t>TRÀ LÀI LỆ CHI</t>
-  </si>
-  <si>
-    <t>serup vải ; vải tươi</t>
-  </si>
-  <si>
-    <t>Lychee Jasmine Tea</t>
-  </si>
-  <si>
-    <t>Lychee syrup ; fresh lychee</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_trasangtao%2FTra%CC%80%20la%CC%80i%20le%CC%A3%CC%82%20chi_trasangtao.JPG?alt=media&amp;token=7e11fc08-31b8-4190-a6d0-d4b30f58a687</t>
-  </si>
-  <si>
-    <t>TRÀ ỔI HỒNG</t>
-  </si>
-  <si>
-    <t>nước cốt tắc ; mức ổi ; serup ổi ; ổi tươi</t>
-  </si>
-  <si>
-    <t>Pink Guava Tea</t>
-  </si>
-  <si>
-    <t>kumquat juice ; guava jam ; guava syrup; fresh guava</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_trasangtao%2FTra%CC%80%20o%CC%82%CC%89i%20ho%CC%82%CC%80ng_trasangtao.JPG?alt=media&amp;token=3333eb63-9ab5-43dc-8fae-8fa27f4ce823</t>
-  </si>
-  <si>
-    <t>TRÀ GỪNG MẬT ONG</t>
-  </si>
-  <si>
-    <t>trà gừng ; mật ong ; gừng cắt lát</t>
-  </si>
-  <si>
-    <t>Honey Ginger Hot Tea</t>
-  </si>
-  <si>
-    <t>ginger tea ; honey ; sliced ginger</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_trasangtao%2FTra%CC%80%20gu%CC%9B%CC%80ng%20ma%CC%A3%CC%82t%20ong_trasangtao.JPG?alt=media&amp;token=0390f4aa-02a4-4d1a-9cc0-70b2f648bb41</t>
-  </si>
-  <si>
-    <t>TRÀ TẮC XÍ MUỘI</t>
-  </si>
-  <si>
-    <t>xí muội ; trà lipton ; nước cốt tắc ; mức tắc rim</t>
-  </si>
-  <si>
-    <t>Sooty Kumquat Tea</t>
-  </si>
-  <si>
-    <t>soot ; lipton tea ; kumquat juice ; Kumquat Marmalade</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_trasangtao%2FTra%CC%80%20ta%CC%86%CC%81c%20xi%CC%81%20muo%CC%A3%CC%82i_trasangtao.JPG?alt=media&amp;token=08ed6df7-0383-4921-9140-b0cda52c14f5</t>
-  </si>
-  <si>
-    <t>TRÀ LÀI HẠT ĐÁC</t>
-  </si>
-  <si>
-    <t>nước ép thơm thêm hạt đác rim thơm</t>
-  </si>
-  <si>
-    <t>Arenga pinnata Jasmine Tea</t>
-  </si>
-  <si>
-    <t>pineapple juice added with arenga pinnata</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_trasangtao%2FTra%CC%80%20la%CC%80i%20ha%CC%A3t%20%C4%91a%CC%81c_trasangtao.JPG?alt=media&amp;token=9307f7d8-e258-4105-be6e-ff60a7174fb1</t>
-  </si>
-  <si>
-    <t>thaiTea</t>
-  </si>
-  <si>
-    <t>Trà sữa Thái xanh</t>
-  </si>
-  <si>
-    <t>Thai Green Milk Tea</t>
-  </si>
-  <si>
-    <t>Trà Thái xanh chanh mật ong</t>
-  </si>
-  <si>
-    <t>Thai green tea with lemon and honey</t>
-  </si>
-  <si>
-    <t>soda</t>
-  </si>
-  <si>
-    <t>Soda Biển xanh</t>
-  </si>
-  <si>
-    <t>Blue ocean</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_soda%2FSoda%20Bie%CC%82%CC%89n%20xanh_soda.jpg?alt=media&amp;token=cfa0b542-efbd-459d-8bc4-1c6c43447b2f</t>
-  </si>
-  <si>
-    <t>Soda Chanh dây nhiệt đới</t>
-  </si>
-  <si>
-    <t>tropical passionfruit</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_soda%2FSoda%20Chanh%20da%CC%82y_soda.jpg?alt=media&amp;token=6d80ab54-7a51-4f08-be6f-884605b1b178</t>
-  </si>
-  <si>
-    <t>Soda Chanh tươi</t>
-  </si>
-  <si>
-    <t>Fresh &amp; sour</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_soda%2FSoda%20Chanh%20tu%CC%9Bo%CC%9Bi_soda.jpg?alt=media&amp;token=df5eccd2-5139-4157-90ac-ebc1f669cdff</t>
-  </si>
-  <si>
-    <t>Soda Việt quất</t>
-  </si>
-  <si>
-    <t>purple dream</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/dieuthien-production.appspot.com/o/nuoc_soda%2FSoda%20Vie%CC%A3%CC%82t%20qua%CC%82%CC%81t_Soda.jpg?alt=media&amp;token=8e6507ad-71a2-42fb-92a6-ab76677c9f5e</t>
   </si>
   <si>
     <t>softdrink</t>
@@ -951,7 +1010,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$đ-42A]"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot;₫&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -980,10 +1039,6 @@
       <name val="-apple-system"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color rgb="FF0D1216"/>
       <name val="&quot;Segoe UI&quot;"/>
     </font>
@@ -1004,14 +1059,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;Google Sans Mono&quot;"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FFFF0000"/>
@@ -1028,7 +1083,7 @@
       <name val="&quot;Google Sans Mono&quot;"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1039,12 +1094,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5E5E5"/>
-        <bgColor rgb="FFE5E5E5"/>
       </patternFill>
     </fill>
   </fills>
@@ -1098,7 +1147,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1132,76 +1181,73 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -1211,10 +1257,10 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1504,29 +1550,28 @@
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2,""vi"",""en"")"),"MIXED Abalone Mushroom Salad")</f>
-        <v>MIXED Abalone Mushroom Salad</v>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D2&lt;&gt;"""", GOOGLETRANSLATE(D2, ""vi"", ""en""), """")
-"),"abalone mushrooms, tofu, assorted herbs, spicy and sour salad sauce")</f>
-        <v>abalone mushrooms, tofu, assorted herbs, spicy and sour salad sauce</v>
+"),"noodles, bean sprouts, chives, fried tofu, fried mushrooms, tamarind sauce, served with roasted peanuts, chili, and lemon.")</f>
+        <v>noodles, bean sprouts, chives, fried tofu, fried mushrooms, tamarind sauce, served with roasted peanuts, chili, and lemon.</v>
       </c>
       <c r="G2" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2,""vi"",""zh"")"),"混合鲍鱼蘑菇沙拉")</f>
-        <v>混合鲍鱼蘑菇沙拉</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2,""vi"",""zh"")"),"泰式炒河粉")</f>
+        <v>泰式炒河粉</v>
       </c>
       <c r="H2" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D2&lt;&gt;"""", GOOGLETRANSLATE(D2, ""vi"", ""zh""), """")
-"),"鲍鱼菇、豆腐、什锦香草、酸辣沙拉酱")</f>
-        <v>鲍鱼菇、豆腐、什锦香草、酸辣沙拉酱</v>
+"),"面条，豆芽，韭菜，炸豆腐，炸蘑菇，罗望子酱，配烤花生，辣椒和柠檬。")</f>
+        <v>面条，豆芽，韭菜，炸豆腐，炸蘑菇，罗望子酱，配烤花生，辣椒和柠檬。</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="10" t="str">
         <f t="shared" ref="K2:K58" si="1">image(I2,1)</f>
@@ -1538,36 +1583,36 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6">
-        <v>55001.0</v>
+        <v>150000.0</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D3&lt;&gt;"""", GOOGLETRANSLATE(D3, ""vi"", ""en""), """")
-"),"mango, carrot, papaya, tomato, eggplant, cowpea, kumquat, lime leaves, coriander, Thai sauce")</f>
-        <v>mango, carrot, papaya, tomato, eggplant, cowpea, kumquat, lime leaves, coriander, Thai sauce</v>
+"),"Soft tofu, vegetarian floss, seaweed, onion fat served with mayonnaise and chili sauce")</f>
+        <v>Soft tofu, vegetarian floss, seaweed, onion fat served with mayonnaise and chili sauce</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3,""vi"",""zh"")"),"泰式沙拉")</f>
-        <v>泰式沙拉</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3,""vi"",""zh"")"),"酥脆棉花嫩豆腐")</f>
+        <v>酥脆棉花嫩豆腐</v>
       </c>
       <c r="H3" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D3&lt;&gt;"""", GOOGLETRANSLATE(D3, ""vi"", ""zh""), """")
-"),"芒果、胡萝卜、木瓜、番茄、茄子、豇豆、金橘、酸橙叶、香菜、泰式酱")</f>
-        <v>芒果、胡萝卜、木瓜、番茄、茄子、豇豆、金橘、酸橙叶、香菜、泰式酱</v>
+"),"软豆腐、素肉松、海藻、洋葱油配蛋黄酱和辣椒酱")</f>
+        <v>软豆腐、素肉松、海藻、洋葱油配蛋黄酱和辣椒酱</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1579,36 +1624,36 @@
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6">
-        <v>55002.0</v>
+        <v>150000.0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D4&lt;&gt;"""", GOOGLETRANSLATE(D4, ""vi"", ""en""), """")
-"),"lotus root, cucumber, carrot, tofu, assorted herbs, spicy and sour salad dressing")</f>
-        <v>lotus root, cucumber, carrot, tofu, assorted herbs, spicy and sour salad dressing</v>
+"),"Crispy fried seaweed rolled tofu, teriyaki sauce")</f>
+        <v>Crispy fried seaweed rolled tofu, teriyaki sauce</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4,""vi"",""zh"")"),"莲花沙拉")</f>
-        <v>莲花沙拉</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4,""vi"",""zh"")"),"嫩豆海鲜配照烧酱")</f>
+        <v>嫩豆海鲜配照烧酱</v>
       </c>
       <c r="H4" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D4&lt;&gt;"""", GOOGLETRANSLATE(D4, ""vi"", ""zh""), """")
-"),"莲藕、黄瓜、胡萝卜、豆腐、什锦香草、酸辣沙拉酱")</f>
-        <v>莲藕、黄瓜、胡萝卜、豆腐、什锦香草、酸辣沙拉酱</v>
+"),"脆皮炸海苔卷豆腐，照烧酱")</f>
+        <v>脆皮炸海苔卷豆腐，照烧酱</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1620,1193 +1665,1220 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6">
-        <v>55003.0</v>
+        <v>150000.0</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D5&lt;&gt;"""", GOOGLETRANSLATE(D5, ""vi"", ""en""), """")
+"),"potato ; vegetarian floss ; seaweed served with mayonnaise and chili sauce")</f>
+        <v>potato ; vegetarian floss ; seaweed served with mayonnaise and chili sauce</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5,""vi"",""zh"")"),"海绵土豆")</f>
+        <v>海绵土豆</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D5&lt;&gt;"""", GOOGLETRANSLATE(D5, ""vi"", ""zh""), """")
+"),"土豆 ;素食牙线；海藻配蛋黄酱和辣椒酱")</f>
+        <v>土豆 ;素食牙线；海藻配蛋黄酱和辣椒酱</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="36.75" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6">
+        <v>150000.0</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D6&lt;&gt;"""", GOOGLETRANSLATE(D6, ""vi"", ""en""), """")
+"),"")</f>
+        <v/>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6,""vi"",""zh"")"),"将蘑菇舀入宣纸中")</f>
+        <v>将蘑菇舀入宣纸中</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D6&lt;&gt;"""", GOOGLETRANSLATE(D6, ""vi"", ""zh""), """")
+"),"")</f>
+        <v/>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="36.75" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6">
+        <v>55000.0</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7,""vi"",""en"")"),"MIXED Abalone Mushroom Salad")</f>
+        <v>MIXED Abalone Mushroom Salad</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D7&lt;&gt;"""", GOOGLETRANSLATE(D7, ""vi"", ""en""), """")
+"),"abalone mushrooms, tofu, assorted herbs, spicy and sour salad sauce")</f>
+        <v>abalone mushrooms, tofu, assorted herbs, spicy and sour salad sauce</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7,""vi"",""zh"")"),"混合鲍鱼蘑菇沙拉")</f>
+        <v>混合鲍鱼蘑菇沙拉</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D7&lt;&gt;"""", GOOGLETRANSLATE(D7, ""vi"", ""zh""), """")
+"),"鲍鱼菇、豆腐、什锦香草、酸辣沙拉酱")</f>
+        <v>鲍鱼菇、豆腐、什锦香草、酸辣沙拉酱</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="36.75" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6">
+        <v>55001.0</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D8&lt;&gt;"""", GOOGLETRANSLATE(D8, ""vi"", ""en""), """")
+"),"mango, carrot, papaya, tomato, eggplant, cowpea, kumquat, lime leaves, coriander, Thai sauce")</f>
+        <v>mango, carrot, papaya, tomato, eggplant, cowpea, kumquat, lime leaves, coriander, Thai sauce</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8,""vi"",""zh"")"),"泰式沙拉")</f>
+        <v>泰式沙拉</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D8&lt;&gt;"""", GOOGLETRANSLATE(D8, ""vi"", ""zh""), """")
+"),"芒果、胡萝卜、木瓜、番茄、茄子、豇豆、金橘、酸橙叶、香菜、泰式酱")</f>
+        <v>芒果、胡萝卜、木瓜、番茄、茄子、豇豆、金橘、酸橙叶、香菜、泰式酱</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="36.75" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6">
+        <v>55002.0</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D9&lt;&gt;"""", GOOGLETRANSLATE(D9, ""vi"", ""en""), """")
+"),"lotus root, cucumber, carrot, tofu, assorted herbs, spicy and sour salad dressing")</f>
+        <v>lotus root, cucumber, carrot, tofu, assorted herbs, spicy and sour salad dressing</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9,""vi"",""zh"")"),"莲花沙拉")</f>
+        <v>莲花沙拉</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D9&lt;&gt;"""", GOOGLETRANSLATE(D9, ""vi"", ""zh""), """")
+"),"莲藕、黄瓜、胡萝卜、豆腐、什锦香草、酸辣沙拉酱")</f>
+        <v>莲藕、黄瓜、胡萝卜、豆腐、什锦香草、酸辣沙拉酱</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="36.75" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="6">
+        <v>55003.0</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D10&lt;&gt;"""", GOOGLETRANSLATE(D10, ""vi"", ""en""), """")
 "),"seaweed, cucumber, carrots, assorted herbs, spicy and sour salad dressing")</f>
         <v>seaweed, cucumber, carrots, assorted herbs, spicy and sour salad dressing</v>
       </c>
-      <c r="G5" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5,""vi"",""zh"")"),"软骨沙拉")</f>
+      <c r="G10" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10,""vi"",""zh"")"),"软骨沙拉")</f>
         <v>软骨沙拉</v>
       </c>
-      <c r="H5" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D5&lt;&gt;"""", GOOGLETRANSLATE(D5, ""vi"", ""zh""), """")
+      <c r="H10" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D10&lt;&gt;"""", GOOGLETRANSLATE(D10, ""vi"", ""zh""), """")
 "),"海藻、黄瓜、胡萝卜、什锦香草、酸辣沙拉酱")</f>
         <v>海藻、黄瓜、胡萝卜、什锦香草、酸辣沙拉酱</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="36.75" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="I10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="36.75" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="6">
         <v>59000.0</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D6&lt;&gt;"""", GOOGLETRANSLATE(D6, ""vi"", ""en""), """")
+      <c r="D11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D11&lt;&gt;"""", GOOGLETRANSLATE(D11, ""vi"", ""en""), """")
 "),"Lettuce, tomato, dragon fruit, pineapple, American corn, orange, raisins, passion fruit sauce")</f>
         <v>Lettuce, tomato, dragon fruit, pineapple, American corn, orange, raisins, passion fruit sauce</v>
       </c>
-      <c r="G6" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6,""vi"",""zh"")"),"热带水果沙拉")</f>
+      <c r="G11" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11,""vi"",""zh"")"),"热带水果沙拉")</f>
         <v>热带水果沙拉</v>
       </c>
-      <c r="H6" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D6&lt;&gt;"""", GOOGLETRANSLATE(D6, ""vi"", ""zh""), """")
+      <c r="H11" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D11&lt;&gt;"""", GOOGLETRANSLATE(D11, ""vi"", ""zh""), """")
 "),"生菜、番茄、火龙果、菠萝、美国玉米、橙子、葡萄干、百香果酱")</f>
         <v>生菜、番茄、火龙果、菠萝、美国玉米、橙子、葡萄干、百香果酱</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="36.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="I11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="36.75" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="6">
         <v>59000.0</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D7&lt;&gt;"""", GOOGLETRANSLATE(D7, ""vi"", ""en""), """")
+      <c r="D12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D12&lt;&gt;"""", GOOGLETRANSLATE(D12, ""vi"", ""en""), """")
 "),"Japanese seaweed, bell pepper, lettuce, roasted sesame sauce")</f>
         <v>Japanese seaweed, bell pepper, lettuce, roasted sesame sauce</v>
       </c>
-      <c r="G7" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7,""vi"",""zh"")"),"日本海藻沙拉")</f>
+      <c r="G12" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12,""vi"",""zh"")"),"日本海藻沙拉")</f>
         <v>日本海藻沙拉</v>
       </c>
-      <c r="H7" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D7&lt;&gt;"""", GOOGLETRANSLATE(D7, ""vi"", ""zh""), """")
+      <c r="H12" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D12&lt;&gt;"""", GOOGLETRANSLATE(D12, ""vi"", ""zh""), """")
 "),"日本紫菜、彩椒、生菜、烤芝麻酱")</f>
         <v>日本紫菜、彩椒、生菜、烤芝麻酱</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="36.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="I12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="36.75" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="6">
         <v>50000.0</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D8&lt;&gt;"""", GOOGLETRANSLATE(D8, ""vi"", ""en""), """")
-"),"Filled with assorted potatoes, carrots, wood ear mushrooms, corn, green beans, served with sweet and sour fish sauce")</f>
-        <v>Filled with assorted potatoes, carrots, wood ear mushrooms, corn, green beans, served with sweet and sour fish sauce</v>
-      </c>
-      <c r="G8" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8,""vi"",""zh"")"),"春卷")</f>
+      <c r="D13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D13&lt;&gt;"""", GOOGLETRANSLATE(D13, ""vi"", ""en""), """")
+"),"Stuffed with assorted potatoes, carrots, wood ear mushrooms, corn, green beans, served with sweet and sour fish sauce")</f>
+        <v>Stuffed with assorted potatoes, carrots, wood ear mushrooms, corn, green beans, served with sweet and sour fish sauce</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13,""vi"",""zh"")"),"春卷")</f>
         <v>春卷</v>
       </c>
-      <c r="H8" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D8&lt;&gt;"""", GOOGLETRANSLATE(D8, ""vi"", ""zh""), """")
-"),"馅料为什锦土豆、胡萝卜、木耳、玉米、青豆，配糖醋鱼露")</f>
-        <v>馅料为什锦土豆、胡萝卜、木耳、玉米、青豆，配糖醋鱼露</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="36.75" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="H13" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D13&lt;&gt;"""", GOOGLETRANSLATE(D13, ""vi"", ""zh""), """")
+"),"塞满什锦土豆、胡萝卜、木耳、玉米、青豆，配糖醋鱼露")</f>
+        <v>塞满什锦土豆、胡萝卜、木耳、玉米、青豆，配糖醋鱼露</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="36.75" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="6">
         <v>50000.0</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D9&lt;&gt;"""", GOOGLETRANSLATE(D9, ""vi"", ""en""), """")
+      <c r="D14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D14&lt;&gt;"""", GOOGLETRANSLATE(D14, ""vi"", ""en""), """")
 "),"Fresh vermicelli filling, assorted herbs, mixed stir-fried mushrooms served with peanut sauce")</f>
         <v>Fresh vermicelli filling, assorted herbs, mixed stir-fried mushrooms served with peanut sauce</v>
       </c>
-      <c r="G9" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9,""vi"",""zh"")"),"春卷")</f>
+      <c r="G14" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14,""vi"",""zh"")"),"春卷")</f>
         <v>春卷</v>
       </c>
-      <c r="H9" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D9&lt;&gt;"""", GOOGLETRANSLATE(D9, ""vi"", ""zh""), """")
-"),"新鲜粉丝馅，什锦香草，炒蘑菇配花生酱")</f>
-        <v>新鲜粉丝馅，什锦香草，炒蘑菇配花生酱</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="9" t="b">
+      <c r="H14" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D14&lt;&gt;"""", GOOGLETRANSLATE(D14, ""vi"", ""zh""), """")
+"),"新鲜粉丝馅，什锦香草，拌炒蘑菇，配花生酱")</f>
+        <v>新鲜粉丝馅，什锦香草，拌炒蘑菇，配花生酱</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="K9" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="36.75" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="K14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="36.75" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="6">
         <v>50000.0</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D10&lt;&gt;"""", GOOGLETRANSLATE(D10, ""vi"", ""en""), """")
+      <c r="D15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D15&lt;&gt;"""", GOOGLETRANSLATE(D15, ""vi"", ""en""), """")
 "),"Filled with assorted potatoes, taro, vermicelli, assorted herbs, served with sweet and sour fish sauce")</f>
         <v>Filled with assorted potatoes, taro, vermicelli, assorted herbs, served with sweet and sour fish sauce</v>
       </c>
-      <c r="G10" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10,""vi"",""zh"")"),"包装卷")</f>
+      <c r="G15" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15,""vi"",""zh"")"),"包装卷")</f>
         <v>包装卷</v>
       </c>
-      <c r="H10" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D10&lt;&gt;"""", GOOGLETRANSLATE(D10, ""vi"", ""zh""), """")
+      <c r="H15" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D15&lt;&gt;"""", GOOGLETRANSLATE(D15, ""vi"", ""zh""), """")
 "),"内馅为什锦土豆、芋头、粉条、什锦香草，配糖醋鱼露")</f>
         <v>内馅为什锦土豆、芋头、粉条、什锦香草，配糖醋鱼露</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="36.75" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="I15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="36.75" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="6">
         <v>55000.0</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D11&lt;&gt;"""", GOOGLETRANSLATE(D11, ""vi"", ""en""), """")
+      <c r="D16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D16&lt;&gt;"""", GOOGLETRANSLATE(D16, ""vi"", ""en""), """")
 "),"Rice paper rolls with fresh vermicelli, assorted raw vegetables, mushrooms in oyster sauce, and peanut sauce")</f>
         <v>Rice paper rolls with fresh vermicelli, assorted raw vegetables, mushrooms in oyster sauce, and peanut sauce</v>
       </c>
-      <c r="G11" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11,""vi"",""zh"")"),"他妈的滚")</f>
+      <c r="G16" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16,""vi"",""zh"")"),"他妈的滚")</f>
         <v>他妈的滚</v>
       </c>
-      <c r="H11" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D11&lt;&gt;"""", GOOGLETRANSLATE(D11, ""vi"", ""zh""), """")
+      <c r="H16" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D16&lt;&gt;"""", GOOGLETRANSLATE(D16, ""vi"", ""zh""), """")
 "),"鲜粉米纸卷、什锦生菜、蚝油蘑菇、花生酱")</f>
         <v>鲜粉米纸卷、什锦生菜、蚝油蘑菇、花生酱</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="36.75" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="I16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="36.75" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="6">
         <v>55000.0</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D12&lt;&gt;"""", GOOGLETRANSLATE(D12, ""vi"", ""en""), """")
+      <c r="D17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D17&lt;&gt;"""", GOOGLETRANSLATE(D17, ""vi"", ""en""), """")
 "),"stuffed with bean sprouts, carrots, mixed stir-fried mushrooms, green beans, rolled with assorted raw vegetables, served with sweet and sour fish sauce.")</f>
         <v>stuffed with bean sprouts, carrots, mixed stir-fried mushrooms, green beans, rolled with assorted raw vegetables, served with sweet and sour fish sauce.</v>
       </c>
-      <c r="G12" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12,""vi"",""zh"")"),"薄煎饼")</f>
+      <c r="G17" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17,""vi"",""zh"")"),"薄煎饼")</f>
         <v>薄煎饼</v>
       </c>
-      <c r="H12" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D12&lt;&gt;"""", GOOGLETRANSLATE(D12, ""vi"", ""zh""), """")
+      <c r="H17" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D17&lt;&gt;"""", GOOGLETRANSLATE(D17, ""vi"", ""zh""), """")
 "),"里面塞满了豆芽、胡萝卜、炒蘑菇、青豆，卷上什锦生蔬菜，配上糖醋鱼露。")</f>
         <v>里面塞满了豆芽、胡萝卜、炒蘑菇、青豆，卷上什锦生蔬菜，配上糖醋鱼露。</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="36.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="I17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="36.75" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="6">
         <v>55000.0</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D13&lt;&gt;"""", GOOGLETRANSLATE(D13, ""vi"", ""en""), """")
-"),"Lolot leaf rolls stir-fried with grilled mixed mushrooms, rice paper rolls with fresh vermicelli, assorted raw vegetables, served with vegetarian seasoning sauce")</f>
-        <v>Lolot leaf rolls stir-fried with grilled mixed mushrooms, rice paper rolls with fresh vermicelli, assorted raw vegetables, served with vegetarian seasoning sauce</v>
-      </c>
-      <c r="G13" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13,""vi"",""zh"")"),"槟榔叶烤蘑菇")</f>
-        <v>槟榔叶烤蘑菇</v>
-      </c>
-      <c r="H13" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D13&lt;&gt;"""", GOOGLETRANSLATE(D13, ""vi"", ""zh""), """")
-"),"烤什锦蘑菇炒洛洛叶卷、鲜粉丝米纸卷、什锦生蔬菜、素调味酱")</f>
-        <v>烤什锦蘑菇炒洛洛叶卷、鲜粉丝米纸卷、什锦生蔬菜、素调味酱</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="36.75" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="D18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D18&lt;&gt;"""", GOOGLETRANSLATE(D18, ""vi"", ""en""), """")
+"),"Lolot leaves rolled with stir-fried mixed mushrooms, rolled with rice paper with fresh vermicelli, assorted raw vegetables, served with vegetarian seasoning sauce")</f>
+        <v>Lolot leaves rolled with stir-fried mixed mushrooms, rolled with rice paper with fresh vermicelli, assorted raw vegetables, served with vegetarian seasoning sauce</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18,""vi"",""zh"")"),"洛洛叶烤蘑菇")</f>
+        <v>洛洛叶烤蘑菇</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D18&lt;&gt;"""", GOOGLETRANSLATE(D18, ""vi"", ""zh""), """")
+"),"罗勒叶卷炒什锦蘑菇，卷上米纸，配上新鲜粉丝，什锦生菜，配上素食调味酱")</f>
+        <v>罗勒叶卷炒什锦蘑菇，卷上米纸，配上新鲜粉丝，什锦生菜，配上素食调味酱</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="36.75" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="6">
         <v>150000.0</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D14&lt;&gt;"""", GOOGLETRANSLATE(D14, ""vi"", ""en""), """")
+      <c r="D19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D19&lt;&gt;"""", GOOGLETRANSLATE(D19, ""vi"", ""en""), """")
 "),"green pepper hotpot ; vegetable spinach ; vegetables cabbage ; mustard greens ; chicken drumstick mushrooms ; abalone mushrooms ; enokitake ; Young tofu ; Served with vegetarian fish sauce and fresh vermicelli")</f>
         <v>green pepper hotpot ; vegetable spinach ; vegetables cabbage ; mustard greens ; chicken drumstick mushrooms ; abalone mushrooms ; enokitake ; Young tofu ; Served with vegetarian fish sauce and fresh vermicelli</v>
       </c>
-      <c r="G14" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14,""vi"",""zh"")"),"青椒蘑菇火锅")</f>
+      <c r="G19" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19,""vi"",""zh"")"),"青椒蘑菇火锅")</f>
         <v>青椒蘑菇火锅</v>
       </c>
-      <c r="H14" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D14&lt;&gt;"""", GOOGLETRANSLATE(D14, ""vi"", ""zh""), """")
+      <c r="H19" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D19&lt;&gt;"""", GOOGLETRANSLATE(D19, ""vi"", ""zh""), """")
 "),"青椒火锅；蔬菜菠菜；蔬菜 卷心菜；芥菜；鸡腿蘑菇；鲍鱼蘑菇；金针菇；嫩豆腐；配素食鱼露和新鲜粉丝")</f>
         <v>青椒火锅；蔬菜菠菜；蔬菜 卷心菜；芥菜；鸡腿蘑菇；鲍鱼蘑菇；金针菇；嫩豆腐；配素食鱼露和新鲜粉丝</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="36.75" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="I19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="36.75" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="6">
         <v>150000.0</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D15&lt;&gt;"""", GOOGLETRANSLATE(D15, ""vi"", ""en""), """")
+      <c r="D20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D20&lt;&gt;"""", GOOGLETRANSLATE(D20, ""vi"", ""en""), """")
 "),"Thai hotpot ; banana vegetables ; vegetables cabbage ; spinach ; Vegetables need water; chicken drumstick mushrooms ; enokitake ; abalone mushrooms ; Soft tofu served with vegetarian fish sauce and fresh vermicelli")</f>
         <v>Thai hotpot ; banana vegetables ; vegetables cabbage ; spinach ; Vegetables need water; chicken drumstick mushrooms ; enokitake ; abalone mushrooms ; Soft tofu served with vegetarian fish sauce and fresh vermicelli</v>
       </c>
-      <c r="G15" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15,""vi"",""zh"")"),"泰式火锅")</f>
+      <c r="G20" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20,""vi"",""zh"")"),"泰式火锅")</f>
         <v>泰式火锅</v>
       </c>
-      <c r="H15" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D15&lt;&gt;"""", GOOGLETRANSLATE(D15, ""vi"", ""zh""), """")
+      <c r="H20" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D20&lt;&gt;"""", GOOGLETRANSLATE(D20, ""vi"", ""zh""), """")
 "),"泰式火锅；香蕉蔬菜；蔬菜 卷心菜；菠菜 ;蔬菜需要水；鸡腿蘑菇；金针菇；鲍鱼蘑菇；软豆腐配素鱼露和新鲜粉丝")</f>
         <v>泰式火锅；香蕉蔬菜；蔬菜 卷心菜；菠菜 ;蔬菜需要水；鸡腿蘑菇；金针菇；鲍鱼蘑菇；软豆腐配素鱼露和新鲜粉丝</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="36.75" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="I20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="36.75" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="6">
         <v>150000.0</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D16&lt;&gt;"""", GOOGLETRANSLATE(D16, ""vi"", ""en""), """")
+      <c r="D21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D21&lt;&gt;"""", GOOGLETRANSLATE(D21, ""vi"", ""en""), """")
 "),"satay hotpot ; vegetable spinach ; vegetables cabbage ; abalone mushrooms ; chicken drumstick mushrooms ; black enoki mushroom ; Tofu ; Tofu ki served with satay fish sauce and fresh vermicelli")</f>
         <v>satay hotpot ; vegetable spinach ; vegetables cabbage ; abalone mushrooms ; chicken drumstick mushrooms ; black enoki mushroom ; Tofu ; Tofu ki served with satay fish sauce and fresh vermicelli</v>
       </c>
-      <c r="G16" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16,""vi"",""zh"")"),"很棒的沙爹火锅")</f>
+      <c r="G21" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21,""vi"",""zh"")"),"很棒的沙爹火锅")</f>
         <v>很棒的沙爹火锅</v>
       </c>
-      <c r="H16" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D16&lt;&gt;"""", GOOGLETRANSLATE(D16, ""vi"", ""zh""), """")
+      <c r="H21" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D21&lt;&gt;"""", GOOGLETRANSLATE(D21, ""vi"", ""zh""), """")
 "),"沙爹火锅；蔬菜菠菜；蔬菜 卷心菜；鲍鱼蘑菇；鸡腿蘑菇；黑金针菇；豆腐 ;豆腐记配沙爹鱼露和新鲜粉丝")</f>
         <v>沙爹火锅；蔬菜菠菜；蔬菜 卷心菜；鲍鱼蘑菇；鸡腿蘑菇；黑金针菇；豆腐 ;豆腐记配沙爹鱼露和新鲜粉丝</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="36.75" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="I21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="36.75" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="6">
         <v>150000.0</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D17&lt;&gt;"""", GOOGLETRANSLATE(D17, ""vi"", ""en""), """")
+      <c r="D22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D22&lt;&gt;"""", GOOGLETRANSLATE(D22, ""vi"", ""en""), """")
 "),"chao hotpot ; vegetable spinach ; vegetables cabbage ; mustard greens ; chicken drumstick mushrooms ; abalone mushrooms ; Tofu ki served with vegetarian dipping sauce and fresh vermicelli")</f>
         <v>chao hotpot ; vegetable spinach ; vegetables cabbage ; mustard greens ; chicken drumstick mushrooms ; abalone mushrooms ; Tofu ki served with vegetarian dipping sauce and fresh vermicelli</v>
       </c>
-      <c r="G17" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17,""vi"",""zh"")"),"潮火锅")</f>
+      <c r="G22" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22,""vi"",""zh"")"),"潮火锅")</f>
         <v>潮火锅</v>
       </c>
-      <c r="H17" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D17&lt;&gt;"""", GOOGLETRANSLATE(D17, ""vi"", ""zh""), """")
-"),"潮火锅；蔬菜菠菜；蔬菜 卷心菜；芥菜；鸡腿蘑菇；鲍鱼蘑菇；豆腐木配素食蘸酱和新鲜粉丝")</f>
-        <v>潮火锅；蔬菜菠菜；蔬菜 卷心菜；芥菜；鸡腿蘑菇；鲍鱼蘑菇；豆腐木配素食蘸酱和新鲜粉丝</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="36.75" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="H22" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D22&lt;&gt;"""", GOOGLETRANSLATE(D22, ""vi"", ""zh""), """")
+"),"潮火锅;蔬菜菠菜；蔬菜 卷心菜；芥菜；鸡腿蘑菇；鲍鱼蘑菇；豆腐木配素食蘸酱和新鲜粉丝")</f>
+        <v>潮火锅;蔬菜菠菜；蔬菜 卷心菜；芥菜；鸡腿蘑菇；鲍鱼蘑菇；豆腐木配素食蘸酱和新鲜粉丝</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="36.75" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="6">
         <v>150000.0</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D18&lt;&gt;"""", GOOGLETRANSLATE(D18, ""vi"", ""en""), """")
+      <c r="D23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D23&lt;&gt;"""", GOOGLETRANSLATE(D23, ""vi"", ""en""), """")
 "),"kimchi hotpot ; purple cabbage ; Chinese cabbage ; Abalone mushrooms served with Korean noodles")</f>
         <v>kimchi hotpot ; purple cabbage ; Chinese cabbage ; Abalone mushrooms served with Korean noodles</v>
       </c>
-      <c r="G18" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18,""vi"",""zh"")"),"韩国泡菜火锅")</f>
+      <c r="G23" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23,""vi"",""zh"")"),"韩国泡菜火锅")</f>
         <v>韩国泡菜火锅</v>
       </c>
-      <c r="H18" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D18&lt;&gt;"""", GOOGLETRANSLATE(D18, ""vi"", ""zh""), """")
+      <c r="H23" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D23&lt;&gt;"""", GOOGLETRANSLATE(D23, ""vi"", ""zh""), """")
 "),"泡菜火锅；紫甘蓝;大白菜；鲍鱼蘑菇配韩式面条")</f>
         <v>泡菜火锅；紫甘蓝;大白菜；鲍鱼蘑菇配韩式面条</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="36.75" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="I23" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="36.75" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="6">
         <v>250000.0</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D19&lt;&gt;"""", GOOGLETRANSLATE(D19, ""vi"", ""en""), """")
+      <c r="D24" s="11"/>
+      <c r="E24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D24&lt;&gt;"""", GOOGLETRANSLATE(D24, ""vi"", ""en""), """")
 "),"")</f>
         <v/>
       </c>
-      <c r="G19" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19,""vi"",""zh"")"),"爱情鸟火锅")</f>
+      <c r="G24" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24,""vi"",""zh"")"),"爱情鸟火锅")</f>
         <v>爱情鸟火锅</v>
       </c>
-      <c r="H19" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D19&lt;&gt;"""", GOOGLETRANSLATE(D19, ""vi"", ""zh""), """")
+      <c r="H24" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D24&lt;&gt;"""", GOOGLETRANSLATE(D24, ""vi"", ""zh""), """")
 "),"")</f>
         <v/>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="36.75" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="I24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="36.75" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="6">
         <v>55000.0</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D20&lt;&gt;"""", GOOGLETRANSLATE(D20, ""vi"", ""en""), """")
+      <c r="D25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D25&lt;&gt;"""", GOOGLETRANSLATE(D25, ""vi"", ""en""), """")
 "),"rice, vegetarian salted fish, vegetarian floss, vegetarian seaweed, green onions (adjustable)")</f>
         <v>rice, vegetarian salted fish, vegetarian floss, vegetarian seaweed, green onions (adjustable)</v>
       </c>
-      <c r="G20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20,""vi"",""zh"")"),"海带炒饭")</f>
+      <c r="G25" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25,""vi"",""zh"")"),"海带炒饭")</f>
         <v>海带炒饭</v>
       </c>
-      <c r="H20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D20&lt;&gt;"""", GOOGLETRANSLATE(D20, ""vi"", ""zh""), """")
+      <c r="H25" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D25&lt;&gt;"""", GOOGLETRANSLATE(D25, ""vi"", ""zh""), """")
 "),"白饭、素咸鱼、素肉松、素紫菜、葱（适量）")</f>
         <v>白饭、素咸鱼、素肉松、素紫菜、葱（适量）</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="36.75" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="I25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="36.75" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="6">
         <v>55000.0</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D21&lt;&gt;"""", GOOGLETRANSLATE(D21, ""vi"", ""en""), """")
+      <c r="D26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D26&lt;&gt;"""", GOOGLETRANSLATE(D26, ""vi"", ""en""), """")
 "),"Rice, pineapple, green beans, carrots, American corn, green onions (adjustable)")</f>
         <v>Rice, pineapple, green beans, carrots, American corn, green onions (adjustable)</v>
       </c>
-      <c r="G21" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21,""vi"",""zh"")"),"泰式香炒饭")</f>
+      <c r="G26" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26,""vi"",""zh"")"),"泰式香炒饭")</f>
         <v>泰式香炒饭</v>
       </c>
-      <c r="H21" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D21&lt;&gt;"""", GOOGLETRANSLATE(D21, ""vi"", ""zh""), """")
+      <c r="H26" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D26&lt;&gt;"""", GOOGLETRANSLATE(D26, ""vi"", ""zh""), """")
 "),"大米、菠萝、青豆、胡萝卜、美国玉米、大葱（可调）")</f>
         <v>大米、菠萝、青豆、胡萝卜、美国玉米、大葱（可调）</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="36.75" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="I26" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="36.75" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="6">
         <v>55000.0</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D22&lt;&gt;"""", GOOGLETRANSLATE(D22, ""vi"", ""en""), """")
+      <c r="D27" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D27&lt;&gt;"""", GOOGLETRANSLATE(D27, ""vi"", ""en""), """")
 "),"Duong Chau fried rice: Rice, green beans, carrots, American corn, green onions (adjustable)")</f>
         <v>Duong Chau fried rice: Rice, green beans, carrots, American corn, green onions (adjustable)</v>
       </c>
-      <c r="G22" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22,""vi"",""zh"")"),"扬州炒饭")</f>
+      <c r="G27" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27,""vi"",""zh"")"),"扬州炒饭")</f>
         <v>扬州炒饭</v>
       </c>
-      <c r="H22" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D22&lt;&gt;"""", GOOGLETRANSLATE(D22, ""vi"", ""zh""), """")
+      <c r="H27" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D27&lt;&gt;"""", GOOGLETRANSLATE(D27, ""vi"", ""zh""), """")
 "),"阳州炒饭：米饭、青豆、胡萝卜、美国玉米、大葱（可调节）")</f>
         <v>阳州炒饭：米饭、青豆、胡萝卜、美国玉米、大葱（可调节）</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J22" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="36.75" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="I27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="36.75" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="6">
         <v>59000.0</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D23&lt;&gt;"""", GOOGLETRANSLATE(D23, ""vi"", ""en""), """")
+      <c r="D28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D28&lt;&gt;"""", GOOGLETRANSLATE(D28, ""vi"", ""en""), """")
 "),"Rice, bean sprouts, purple cabbage, bell pepper, American corn, sesame peanuts, fried mushrooms, served with Korean mixed rice sauce")</f>
         <v>Rice, bean sprouts, purple cabbage, bell pepper, American corn, sesame peanuts, fried mushrooms, served with Korean mixed rice sauce</v>
       </c>
-      <c r="G23" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23,""vi"",""zh"")"),"韩国什锦饭")</f>
+      <c r="G28" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28,""vi"",""zh"")"),"韩国什锦饭")</f>
         <v>韩国什锦饭</v>
       </c>
-      <c r="H23" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D23&lt;&gt;"""", GOOGLETRANSLATE(D23, ""vi"", ""zh""), """")
+      <c r="H28" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D28&lt;&gt;"""", GOOGLETRANSLATE(D28, ""vi"", ""zh""), """")
 "),"米饭、豆芽、紫甘蓝、彩椒、美国玉米、芝麻花生、炒蘑菇，配韩式拌饭酱")</f>
         <v>米饭、豆芽、紫甘蓝、彩椒、美国玉米、芝麻花生、炒蘑菇，配韩式拌饭酱</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J23" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="36.75" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="I28" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="36.75" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="6">
         <v>55000.0</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D24&lt;&gt;"""", GOOGLETRANSLATE(D24, ""vi"", ""en""), """")
+      <c r="D29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D29&lt;&gt;"""", GOOGLETRANSLATE(D29, ""vi"", ""en""), """")
 "),"Rice, chicken drumstick mushrooms, bell peppers, onions, fried garlic, shake sauce served with vegetable soup")</f>
         <v>Rice, chicken drumstick mushrooms, bell peppers, onions, fried garlic, shake sauce served with vegetable soup</v>
       </c>
-      <c r="G24" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24,""vi"",""zh"")"),"摇晃蘑菇饭和蔬菜汤")</f>
+      <c r="G29" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29,""vi"",""zh"")"),"摇晃蘑菇饭和蔬菜汤")</f>
         <v>摇晃蘑菇饭和蔬菜汤</v>
       </c>
-      <c r="H24" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D24&lt;&gt;"""", GOOGLETRANSLATE(D24, ""vi"", ""zh""), """")
+      <c r="H29" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D29&lt;&gt;"""", GOOGLETRANSLATE(D29, ""vi"", ""zh""), """")
 "),"米饭、鸡腿菇、青椒、洋葱、炒蒜、奶昔配蔬菜汤")</f>
         <v>米饭、鸡腿菇、青椒、洋葱、炒蒜、奶昔配蔬菜汤</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="36.75" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="I29" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="36.75" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="6">
         <v>55000.0</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D25&lt;&gt;"""", GOOGLETRANSLATE(D25, ""vi"", ""en""), """")
+      <c r="D30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D30&lt;&gt;"""", GOOGLETRANSLATE(D30, ""vi"", ""en""), """")
 "),"Rice, chicken drumstick mushrooms, sweet potatoes, carrots, taro, coconut milk, curry spices, served with vegetable soup")</f>
         <v>Rice, chicken drumstick mushrooms, sweet potatoes, carrots, taro, coconut milk, curry spices, served with vegetable soup</v>
       </c>
-      <c r="G25" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25,""vi"",""zh"")"),"咖喱饭和蔬菜汤")</f>
+      <c r="G30" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30,""vi"",""zh"")"),"咖喱饭和蔬菜汤")</f>
         <v>咖喱饭和蔬菜汤</v>
       </c>
-      <c r="H25" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D25&lt;&gt;"""", GOOGLETRANSLATE(D25, ""vi"", ""zh""), """")
+      <c r="H30" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D30&lt;&gt;"""", GOOGLETRANSLATE(D30, ""vi"", ""zh""), """")
 "),"米饭、鸡腿菇、红薯、胡萝卜、芋头、椰奶、咖喱香料，配蔬菜汤")</f>
         <v>米饭、鸡腿菇、红薯、胡萝卜、芋头、椰奶、咖喱香料，配蔬菜汤</v>
       </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="36.75" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="I30" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="36.75" customHeight="1">
+      <c r="A31" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="6">
+      <c r="B31" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="6">
         <v>55000.0</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D26&lt;&gt;"""", GOOGLETRANSLATE(D26, ""vi"", ""en""), """")
+      <c r="D31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D31&lt;&gt;"""", GOOGLETRANSLATE(D31, ""vi"", ""en""), """")
 "),"Korean vermicelli, bok choy, purple cabbage, carrots, fried abalone mushrooms, mixed vermicelli sauce.")</f>
         <v>Korean vermicelli, bok choy, purple cabbage, carrots, fried abalone mushrooms, mixed vermicelli sauce.</v>
       </c>
-      <c r="G26" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26,""vi"",""zh"")"),"拌面")</f>
+      <c r="G31" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31,""vi"",""zh"")"),"拌面")</f>
         <v>拌面</v>
       </c>
-      <c r="H26" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D26&lt;&gt;"""", GOOGLETRANSLATE(D26, ""vi"", ""zh""), """")
+      <c r="H31" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D31&lt;&gt;"""", GOOGLETRANSLATE(D31, ""vi"", ""zh""), """")
 "),"韩国粉丝，白菜，紫甘蓝，胡萝卜，炒鲍鱼菇，混合粉丝酱。")</f>
         <v>韩国粉丝，白菜，紫甘蓝，胡萝卜，炒鲍鱼菇，混合粉丝酱。</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="36.75" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="I31" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" ht="36.75" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="6">
         <v>55000.0</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D27&lt;&gt;"""", GOOGLETRANSLATE(D27, ""vi"", ""en""), """")
-"),"rice noodles, bean sprouts, chives, fried tofu, fried mushrooms, tamarind sauce, served with roasted peanuts, chili, lemon.")</f>
-        <v>rice noodles, bean sprouts, chives, fried tofu, fried mushrooms, tamarind sauce, served with roasted peanuts, chili, lemon.</v>
-      </c>
-      <c r="G27" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27,""vi"",""zh"")"),"泰式炒河粉")</f>
-        <v>泰式炒河粉</v>
-      </c>
-      <c r="H27" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D27&lt;&gt;"""", GOOGLETRANSLATE(D27, ""vi"", ""zh""), """")
-"),"米粉，豆芽，韭菜，炸豆腐，炸蘑菇，罗望子酱，配烤花生，辣椒，柠檬。")</f>
-        <v>米粉，豆芽，韭菜，炸豆腐，炸蘑菇，罗望子酱，配烤花生，辣椒，柠檬。</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="36.75" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="6">
-        <v>55000.0</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D28&lt;&gt;"""", GOOGLETRANSLATE(D28, ""vi"", ""en""), """")
+      <c r="D32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D32&lt;&gt;"""", GOOGLETRANSLATE(D32, ""vi"", ""en""), """")
 "),"Rice noodles, bell peppers, Chinese cabbage, onions, Chinese cabbage, fried tofu, fried mushrooms, fried garlic.")</f>
         <v>Rice noodles, bell peppers, Chinese cabbage, onions, Chinese cabbage, fried tofu, fried mushrooms, fried garlic.</v>
       </c>
-      <c r="G28" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28,""vi"",""zh"")"),"炒面")</f>
+      <c r="G32" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32,""vi"",""zh"")"),"炒面")</f>
         <v>炒面</v>
       </c>
-      <c r="H28" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D28&lt;&gt;"""", GOOGLETRANSLATE(D28, ""vi"", ""zh""), """")
+      <c r="H32" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D32&lt;&gt;"""", GOOGLETRANSLATE(D32, ""vi"", ""zh""), """")
 "),"米粉，青椒，大白菜，洋葱，大白菜，炒豆腐，炒蘑菇，炒蒜。")</f>
         <v>米粉，青椒，大白菜，洋葱，大白菜，炒豆腐，炒蘑菇，炒蒜。</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="36.75" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="I32" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" ht="36.75" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="6">
         <v>55000.0</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D29&lt;&gt;"""", GOOGLETRANSLATE(D29, ""vi"", ""en""), """")
+      <c r="D33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D33&lt;&gt;"""", GOOGLETRANSLATE(D33, ""vi"", ""en""), """")
 "),"Yellow noodles, bell peppers, Chinese cabbage, onions, Chinese cabbage, fried tofu, fried mushrooms, fried onions.")</f>
         <v>Yellow noodles, bell peppers, Chinese cabbage, onions, Chinese cabbage, fried tofu, fried mushrooms, fried onions.</v>
       </c>
-      <c r="G29" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29,""vi"",""zh"")"),"炒黄面")</f>
+      <c r="G33" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33,""vi"",""zh"")"),"炒黄面")</f>
         <v>炒黄面</v>
       </c>
-      <c r="H29" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D29&lt;&gt;"""", GOOGLETRANSLATE(D29, ""vi"", ""zh""), """")
+      <c r="H33" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D33&lt;&gt;"""", GOOGLETRANSLATE(D33, ""vi"", ""zh""), """")
 "),"黄面，青椒，大白菜，洋葱，大白菜，炒豆腐，炒蘑菇，炒洋葱。")</f>
         <v>黄面，青椒，大白菜，洋葱，大白菜，炒豆腐，炒蘑菇，炒洋葱。</v>
       </c>
-      <c r="I29" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="J29" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="36.75" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="I33" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="36.75" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="6">
         <v>59000.0</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D30&lt;&gt;"""", GOOGLETRANSLATE(D30, ""vi"", ""en""), """")
+      <c r="D34" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D34&lt;&gt;"""", GOOGLETRANSLATE(D34, ""vi"", ""en""), """")
 "),"Spaghetti, chicken drumstick mushrooms, tomato sauce,")</f>
         <v>Spaghetti, chicken drumstick mushrooms, tomato sauce,</v>
       </c>
-      <c r="G30" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30,""vi"",""zh"")"),"蘑菇番茄酱意大利面")</f>
-        <v>蘑菇番茄酱意大利面</v>
-      </c>
-      <c r="H30" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D30&lt;&gt;"""", GOOGLETRANSLATE(D30, ""vi"", ""zh""), """")
+      <c r="G34" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34,""vi"",""zh"")"),"番茄蘑菇意大利面")</f>
+        <v>番茄蘑菇意大利面</v>
+      </c>
+      <c r="H34" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D34&lt;&gt;"""", GOOGLETRANSLATE(D34, ""vi"", ""zh""), """")
 "),"意大利面、鸡腿蘑菇、番茄酱、")</f>
         <v>意大利面、鸡腿蘑菇、番茄酱、</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J30" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="36.75" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="6">
-        <v>65000.0</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D31&lt;&gt;"""", GOOGLETRANSLATE(D31, ""vi"", ""en""), """")
-"),"")</f>
-        <v/>
-      </c>
-      <c r="G31" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31,""vi"",""zh"")"),"咖喱面包")</f>
-        <v>咖喱面包</v>
-      </c>
-      <c r="H31" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D31&lt;&gt;"""", GOOGLETRANSLATE(D31, ""vi"", ""zh""), """")
-"),"")</f>
-        <v/>
-      </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" ht="36.75" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="6">
-        <v>65000.0</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D32&lt;&gt;"""", GOOGLETRANSLATE(D32, ""vi"", ""en""), """")
-"),"")</f>
-        <v/>
-      </c>
-      <c r="G32" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32,""vi"",""zh"")"),"蘑菇配土豆")</f>
-        <v>蘑菇配土豆</v>
-      </c>
-      <c r="H32" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D32&lt;&gt;"""", GOOGLETRANSLATE(D32, ""vi"", ""zh""), """")
-"),"")</f>
-        <v/>
-      </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" ht="36.75" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="6">
-        <v>150000.0</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D33&lt;&gt;"""", GOOGLETRANSLATE(D33, ""vi"", ""en""), """")
-"),"")</f>
-        <v/>
-      </c>
-      <c r="G33" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33,""vi"",""zh"")"),"拉面（干/水）")</f>
-        <v>拉面（干/水）</v>
-      </c>
-      <c r="H33" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D33&lt;&gt;"""", GOOGLETRANSLATE(D33, ""vi"", ""zh""), """")
-"),"")</f>
-        <v/>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J33" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" ht="36.75" customHeight="1">
-      <c r="A34" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="6">
-        <v>150000.0</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D34&lt;&gt;"""", GOOGLETRANSLATE(D34, ""vi"", ""en""), """")
-"),"")</f>
-        <v/>
-      </c>
-      <c r="G34" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34,""vi"",""zh"")"),"将蘑菇舀入宣纸中")</f>
-        <v>将蘑菇舀入宣纸中</v>
-      </c>
-      <c r="H34" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D34&lt;&gt;"""", GOOGLETRANSLATE(D34, ""vi"", ""zh""), """")
-"),"")</f>
-        <v/>
-      </c>
-      <c r="I34" s="8"/>
+      <c r="I34" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="J34" s="9" t="b">
         <v>0</v>
       </c>
@@ -2817,35 +2889,35 @@
     </row>
     <row r="35" ht="36.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C35" s="6">
-        <v>150000.0</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>119</v>
-      </c>
+        <v>65000.0</v>
+      </c>
+      <c r="D35" s="11"/>
       <c r="E35" s="7" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="F35" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D35&lt;&gt;"""", GOOGLETRANSLATE(D35, ""vi"", ""en""), """")
-"),"Soft tofu, vegetarian floss, seaweed, onion fat served with mayonnaise and chili sauce")</f>
-        <v>Soft tofu, vegetarian floss, seaweed, onion fat served with mayonnaise and chili sauce</v>
+"),"")</f>
+        <v/>
       </c>
       <c r="G35" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35,""vi"",""zh"")"),"酥脆棉花嫩豆腐")</f>
-        <v>酥脆棉花嫩豆腐</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35,""vi"",""zh"")"),"咖喱面包")</f>
+        <v>咖喱面包</v>
       </c>
       <c r="H35" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D35&lt;&gt;"""", GOOGLETRANSLATE(D35, ""vi"", ""zh""), """")
-"),"软豆腐、素肉松、海藻、洋葱油配蛋黄酱和辣椒酱")</f>
-        <v>软豆腐、素肉松、海藻、洋葱油配蛋黄酱和辣椒酱</v>
-      </c>
-      <c r="I35" s="8"/>
+"),"")</f>
+        <v/>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="J35" s="9" t="b">
         <v>0</v>
       </c>
@@ -2856,115 +2928,117 @@
     </row>
     <row r="36" ht="36.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C36" s="6">
-        <v>150000.0</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>122</v>
-      </c>
+        <v>65000.0</v>
+      </c>
+      <c r="D36" s="11"/>
       <c r="E36" s="7" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="F36" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D36&lt;&gt;"""", GOOGLETRANSLATE(D36, ""vi"", ""en""), """")
+"),"")</f>
+        <v/>
+      </c>
+      <c r="G36" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36,""vi"",""zh"")"),"蘑菇配土豆")</f>
+        <v>蘑菇配土豆</v>
+      </c>
+      <c r="H36" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D36&lt;&gt;"""", GOOGLETRANSLATE(D36, ""vi"", ""zh""), """")
+"),"")</f>
+        <v/>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" ht="36.75" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="6">
+        <v>150000.0</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D37&lt;&gt;"""", GOOGLETRANSLATE(D37, ""vi"", ""en""), """")
+"),"")</f>
+        <v/>
+      </c>
+      <c r="G37" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37,""vi"",""zh"")"),"拉面（干/水）")</f>
+        <v>拉面（干/水）</v>
+      </c>
+      <c r="H37" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D37&lt;&gt;"""", GOOGLETRANSLATE(D37, ""vi"", ""zh""), """")
+"),"")</f>
+        <v/>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" ht="36.75" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="6">
+        <v>150000.0</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D38&lt;&gt;"""", GOOGLETRANSLATE(D38, ""vi"", ""en""), """")
 "),"abalone mushrooms, Hong Kong salt served with mayonnaise and chili sauce")</f>
         <v>abalone mushrooms, Hong Kong salt served with mayonnaise and chili sauce</v>
       </c>
-      <c r="G36" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36,""vi"",""zh"")"),"港盐炒鲍鱼菇")</f>
+      <c r="G38" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38,""vi"",""zh"")"),"港盐炒鲍鱼菇")</f>
         <v>港盐炒鲍鱼菇</v>
       </c>
-      <c r="H36" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D36&lt;&gt;"""", GOOGLETRANSLATE(D36, ""vi"", ""zh""), """")
+      <c r="H38" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D38&lt;&gt;"""", GOOGLETRANSLATE(D38, ""vi"", ""zh""), """")
 "),"鲍鱼菇、港盐 配蛋黄酱和辣椒酱")</f>
         <v>鲍鱼菇、港盐 配蛋黄酱和辣椒酱</v>
       </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" ht="36.75" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="6">
-        <v>150000.0</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F37" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D37&lt;&gt;"""", GOOGLETRANSLATE(D37, ""vi"", ""en""), """")
-"),"Crispy fried seaweed rolled tofu, teriyaki sauce")</f>
-        <v>Crispy fried seaweed rolled tofu, teriyaki sauce</v>
-      </c>
-      <c r="G37" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37,""vi"",""zh"")"),"嫩豆海鲜配照烧酱")</f>
-        <v>嫩豆海鲜配照烧酱</v>
-      </c>
-      <c r="H37" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D37&lt;&gt;"""", GOOGLETRANSLATE(D37, ""vi"", ""zh""), """")
-"),"脆皮炸海苔卷豆腐，照烧酱")</f>
-        <v>脆皮炸海苔卷豆腐，照烧酱</v>
-      </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K37" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" ht="36.75" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="6">
-        <v>150000.0</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D38&lt;&gt;"""", GOOGLETRANSLATE(D38, ""vi"", ""en""), """")
-"),"potato ; vegetarian floss ; Seaweed served with mayonnaise and chili sauce")</f>
-        <v>potato ; vegetarian floss ; Seaweed served with mayonnaise and chili sauce</v>
-      </c>
-      <c r="G38" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38,""vi"",""zh"")"),"海绵土豆")</f>
-        <v>海绵土豆</v>
-      </c>
-      <c r="H38" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D38&lt;&gt;"""", GOOGLETRANSLATE(D38, ""vi"", ""zh""), """")
-"),"土豆 ;素食牙线；海藻配蛋黄酱和辣椒酱")</f>
-        <v>土豆 ;素食牙线；海藻配蛋黄酱和辣椒酱</v>
-      </c>
-      <c r="I38" s="8"/>
+      <c r="I38" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="J38" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2973,19 +3047,19 @@
     </row>
     <row r="39" ht="36.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C39" s="6">
         <v>50000.0</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F39" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D39&lt;&gt;"""", GOOGLETRANSLATE(D39, ""vi"", ""en""), """")
@@ -3002,7 +3076,7 @@
         <v>海藻;豆腐、鲍鱼菇、胡萝卜、炸洋葱；胡椒、生姜</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="J39" s="9" t="b">
         <v>0</v>
@@ -3014,19 +3088,19 @@
     </row>
     <row r="40" ht="36.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C40" s="6">
         <v>50000.0</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="F40" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D40&lt;&gt;"""", GOOGLETRANSLATE(D40, ""vi"", ""en""), """")
@@ -3043,7 +3117,7 @@
         <v>薄荷、秋葵、豆芽、西红柿、菠萝、香草、炒大蒜</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J40" s="9" t="b">
         <v>0</v>
@@ -3055,19 +3129,19 @@
     </row>
     <row r="41" ht="36.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C41" s="6">
         <v>50000.0</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="F41" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D41&lt;&gt;"""", GOOGLETRANSLATE(D41, ""vi"", ""en""), """")
@@ -3084,7 +3158,7 @@
         <v>青芥菜、鲍鱼菇、生姜、胡椒</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J41" s="9" t="b">
         <v>0</v>
@@ -3096,19 +3170,19 @@
     </row>
     <row r="42" ht="36.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C42" s="6">
         <v>39000.0</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F42" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D42&lt;&gt;"""", GOOGLETRANSLATE(D42, ""vi"", ""en""), """")
@@ -3125,7 +3199,7 @@
         <v>仙女的头发；美国玉米；胡萝卜 ;蘑菇 ;四季豆；炒洋葱；胡椒 ;香菜</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="J42" s="9" t="b">
         <v>0</v>
@@ -3137,19 +3211,19 @@
     </row>
     <row r="43" ht="36.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C43" s="6">
         <v>39000.0</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="F43" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D43&lt;&gt;"""", GOOGLETRANSLATE(D43, ""vi"", ""en""), """")
@@ -3166,7 +3240,7 @@
         <v>白木耳；莲子；胡萝卜蘑菇；四季豆；炒洋葱；胡椒;香菜。</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="J43" s="9" t="b">
         <v>0</v>
@@ -3178,19 +3252,19 @@
     </row>
     <row r="44" ht="36.75" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C44" s="6">
         <v>45000.0</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="F44" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D44&lt;&gt;"""", GOOGLETRANSLATE(D44, ""vi"", ""en""), """")
@@ -3206,7 +3280,9 @@
 "),"泡菜火锅；紫甘蓝;大白菜；鲍鱼蘑菇配韩式面条")</f>
         <v>泡菜火锅；紫甘蓝;大白菜；鲍鱼蘑菇配韩式面条</v>
       </c>
-      <c r="I44" s="14"/>
+      <c r="I44" s="14" t="s">
+        <v>168</v>
+      </c>
       <c r="J44" s="9" t="b">
         <v>0</v>
       </c>
@@ -3217,19 +3293,19 @@
     </row>
     <row r="45" ht="36.75" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C45" s="6">
         <v>55000.0</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F45" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D45&lt;&gt;"""", GOOGLETRANSLATE(D45, ""vi"", ""en""), """")
@@ -3246,7 +3322,7 @@
         <v>泡菜火锅；紫甘蓝;大白菜；鲍鱼蘑菇配韩式面条</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="J45" s="9" t="b">
         <v>0</v>
@@ -3258,19 +3334,19 @@
     </row>
     <row r="46" ht="36.75" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="C46" s="6">
         <v>55000.0</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F46" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D46&lt;&gt;"""", GOOGLETRANSLATE(D46, ""vi"", ""en""), """")
@@ -3287,7 +3363,7 @@
         <v>泡菜火锅；紫甘蓝;大白菜；鲍鱼蘑菇配韩式面条</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="J46" s="9" t="b">
         <v>0</v>
@@ -3299,19 +3375,19 @@
     </row>
     <row r="47" ht="36.75" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C47" s="6">
         <v>55000.0</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="F47" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D47&lt;&gt;"""", GOOGLETRANSLATE(D47, ""vi"", ""en""), """")
@@ -3328,7 +3404,7 @@
         <v>泡菜火锅；紫甘蓝;大白菜；鲍鱼蘑菇配韩式面条</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="J47" s="9" t="b">
         <v>0</v>
@@ -3340,19 +3416,19 @@
     </row>
     <row r="48" ht="36.75" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C48" s="6">
         <v>55000.0</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="F48" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D48&lt;&gt;"""", GOOGLETRANSLATE(D48, ""vi"", ""en""), """")
@@ -3368,7 +3444,9 @@
 "),"泡菜火锅；紫甘蓝;大白菜；鲍鱼蘑菇配韩式面条")</f>
         <v>泡菜火锅；紫甘蓝;大白菜；鲍鱼蘑菇配韩式面条</v>
       </c>
-      <c r="I48" s="14"/>
+      <c r="I48" s="14" t="s">
+        <v>180</v>
+      </c>
       <c r="J48" s="9" t="b">
         <v>0</v>
       </c>
@@ -3379,19 +3457,19 @@
     </row>
     <row r="49" ht="36.75" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C49" s="6">
         <v>65000.0</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="F49" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D49&lt;&gt;"""", GOOGLETRANSLATE(D49, ""vi"", ""en""), """")
@@ -3408,7 +3486,7 @@
         <v>泡菜火锅；紫甘蓝;大白菜；鲍鱼蘑菇配韩式面条</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="J49" s="9" t="b">
         <v>0</v>
@@ -3420,19 +3498,19 @@
     </row>
     <row r="50" ht="36.75" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C50" s="6">
         <v>55000.0</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F50" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D50&lt;&gt;"""", GOOGLETRANSLATE(D50, ""vi"", ""en""), """")
@@ -3449,7 +3527,7 @@
         <v>泡菜火锅；紫甘蓝;大白菜；鲍鱼蘑菇配韩式面条</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="J50" s="9" t="b">
         <v>0</v>
@@ -3461,19 +3539,19 @@
     </row>
     <row r="51" ht="36.75" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C51" s="6">
         <v>55000.0</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="F51" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D51&lt;&gt;"""", GOOGLETRANSLATE(D51, ""vi"", ""en""), """")
@@ -3490,7 +3568,7 @@
         <v>泡菜火锅；紫甘蓝;大白菜；鲍鱼蘑菇配韩式面条</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="J51" s="9" t="b">
         <v>0</v>
@@ -3502,19 +3580,19 @@
     </row>
     <row r="52" ht="36.75" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C52" s="6">
         <v>55000.0</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F52" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D52&lt;&gt;"""", GOOGLETRANSLATE(D52, ""vi"", ""en""), """")
@@ -3531,7 +3609,7 @@
         <v>泡菜火锅；紫甘蓝;大白菜；鲍鱼蘑菇配韩式面条</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="J52" s="9" t="b">
         <v>0</v>
@@ -3543,19 +3621,19 @@
     </row>
     <row r="53" ht="36.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C53" s="6">
         <v>65000.0</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="F53" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D53&lt;&gt;"""", GOOGLETRANSLATE(D53, ""vi"", ""en""), """")
@@ -3572,7 +3650,7 @@
         <v>泡菜火锅；紫甘蓝;大白菜；鲍鱼蘑菇配韩式面条</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="J53" s="9" t="b">
         <v>0</v>
@@ -3584,19 +3662,19 @@
     </row>
     <row r="54" ht="36.75" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C54" s="6">
         <v>65000.0</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="F54" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D54&lt;&gt;"""", GOOGLETRANSLATE(D54, ""vi"", ""en""), """")
@@ -3612,7 +3690,9 @@
 "),"泡菜火锅；紫甘蓝;大白菜；鲍鱼蘑菇配韩式面条")</f>
         <v>泡菜火锅；紫甘蓝;大白菜；鲍鱼蘑菇配韩式面条</v>
       </c>
-      <c r="I54" s="14"/>
+      <c r="I54" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="J54" s="9" t="b">
         <v>0</v>
       </c>
@@ -3623,19 +3703,19 @@
     </row>
     <row r="55" ht="36.75" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="C55" s="6">
         <v>35000.0</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="F55" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D55&lt;&gt;"""", GOOGLETRANSLATE(D55, ""vi"", ""en""), """")
@@ -3652,7 +3732,7 @@
         <v>雪弱；雪莲花；桃胶；枸杞子；红苹果 ;龙眼</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="J55" s="9" t="b">
         <v>0</v>
@@ -3664,19 +3744,19 @@
     </row>
     <row r="56" ht="36.75" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="C56" s="6">
         <v>35000.0</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="F56" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D56&lt;&gt;"""", GOOGLETRANSLATE(D56, ""vi"", ""en""), """")
@@ -3693,7 +3773,7 @@
         <v>莲子；枸杞子；红苹果 ;虫草</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="J56" s="9" t="b">
         <v>0</v>
@@ -3705,19 +3785,19 @@
     </row>
     <row r="57" ht="36.75" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="C57" s="6">
         <v>35000.0</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="F57" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(D57&lt;&gt;"""", GOOGLETRANSLATE(D57, ""vi"", ""en""), """")
@@ -3734,7 +3814,7 @@
         <v>酸奶 ;桑葚级；边缘咬合程度；碎冰</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="J57" s="9" t="b">
         <v>0</v>
@@ -3746,16 +3826,16 @@
     </row>
     <row r="58" ht="36.75" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="C58" s="6">
         <v>12000.0</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="E58" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58,""vi"",""en"")"),"Panna Cotta (Blueberry, passion fruit, guava, peach, mulberry)")</f>
@@ -3775,7 +3855,9 @@
 "),"由纯豆浆制成；明胶配水果酱")</f>
         <v>由纯豆浆制成；明胶配水果酱</v>
       </c>
-      <c r="I58" s="14"/>
+      <c r="I58" s="14" t="s">
+        <v>214</v>
+      </c>
       <c r="J58" s="9" t="b">
         <v>0</v>
       </c>
@@ -3785,6 +3867,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$K$58"/>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A58">
       <formula1>Helper!$A$2:$A58</formula1>
@@ -3797,41 +3880,59 @@
     <hyperlink r:id="rId4" ref="I5"/>
     <hyperlink r:id="rId5" ref="I6"/>
     <hyperlink r:id="rId6" ref="I7"/>
-    <hyperlink r:id="rId7" ref="I9"/>
-    <hyperlink r:id="rId8" ref="I10"/>
-    <hyperlink r:id="rId9" ref="I11"/>
-    <hyperlink r:id="rId10" ref="I12"/>
-    <hyperlink r:id="rId11" ref="I13"/>
-    <hyperlink r:id="rId12" ref="I14"/>
-    <hyperlink r:id="rId13" ref="I15"/>
-    <hyperlink r:id="rId14" ref="I16"/>
-    <hyperlink r:id="rId15" ref="I17"/>
-    <hyperlink r:id="rId16" ref="I19"/>
-    <hyperlink r:id="rId17" ref="I20"/>
-    <hyperlink r:id="rId18" ref="I21"/>
-    <hyperlink r:id="rId19" ref="I22"/>
-    <hyperlink r:id="rId20" ref="I23"/>
-    <hyperlink r:id="rId21" ref="I29"/>
-    <hyperlink r:id="rId22" ref="I30"/>
-    <hyperlink r:id="rId23" ref="I33"/>
-    <hyperlink r:id="rId24" ref="I39"/>
-    <hyperlink r:id="rId25" ref="I40"/>
-    <hyperlink r:id="rId26" ref="I41"/>
-    <hyperlink r:id="rId27" ref="I42"/>
-    <hyperlink r:id="rId28" ref="I43"/>
-    <hyperlink r:id="rId29" ref="I45"/>
-    <hyperlink r:id="rId30" ref="I46"/>
-    <hyperlink r:id="rId31" ref="I47"/>
-    <hyperlink r:id="rId32" ref="I49"/>
-    <hyperlink r:id="rId33" ref="I50"/>
-    <hyperlink r:id="rId34" ref="I51"/>
-    <hyperlink r:id="rId35" ref="I52"/>
-    <hyperlink r:id="rId36" ref="I53"/>
-    <hyperlink r:id="rId37" ref="I55"/>
-    <hyperlink r:id="rId38" ref="I56"/>
-    <hyperlink r:id="rId39" ref="I57"/>
+    <hyperlink r:id="rId7" ref="I8"/>
+    <hyperlink r:id="rId8" ref="I9"/>
+    <hyperlink r:id="rId9" ref="I10"/>
+    <hyperlink r:id="rId10" ref="I11"/>
+    <hyperlink r:id="rId11" ref="I12"/>
+    <hyperlink r:id="rId12" ref="I13"/>
+    <hyperlink r:id="rId13" ref="I14"/>
+    <hyperlink r:id="rId14" ref="I15"/>
+    <hyperlink r:id="rId15" ref="I16"/>
+    <hyperlink r:id="rId16" ref="I17"/>
+    <hyperlink r:id="rId17" ref="I18"/>
+    <hyperlink r:id="rId18" ref="I19"/>
+    <hyperlink r:id="rId19" ref="I20"/>
+    <hyperlink r:id="rId20" ref="I21"/>
+    <hyperlink r:id="rId21" ref="I22"/>
+    <hyperlink r:id="rId22" ref="I23"/>
+    <hyperlink r:id="rId23" ref="I24"/>
+    <hyperlink r:id="rId24" ref="I25"/>
+    <hyperlink r:id="rId25" ref="I26"/>
+    <hyperlink r:id="rId26" ref="I27"/>
+    <hyperlink r:id="rId27" ref="I28"/>
+    <hyperlink r:id="rId28" ref="I29"/>
+    <hyperlink r:id="rId29" ref="I30"/>
+    <hyperlink r:id="rId30" ref="I31"/>
+    <hyperlink r:id="rId31" ref="I32"/>
+    <hyperlink r:id="rId32" ref="I33"/>
+    <hyperlink r:id="rId33" ref="I34"/>
+    <hyperlink r:id="rId34" ref="I35"/>
+    <hyperlink r:id="rId35" ref="I36"/>
+    <hyperlink r:id="rId36" ref="I37"/>
+    <hyperlink r:id="rId37" ref="I38"/>
+    <hyperlink r:id="rId38" ref="I39"/>
+    <hyperlink r:id="rId39" ref="I40"/>
+    <hyperlink r:id="rId40" ref="I41"/>
+    <hyperlink r:id="rId41" ref="I42"/>
+    <hyperlink r:id="rId42" ref="I43"/>
+    <hyperlink r:id="rId43" ref="I44"/>
+    <hyperlink r:id="rId44" ref="I45"/>
+    <hyperlink r:id="rId45" ref="I46"/>
+    <hyperlink r:id="rId46" ref="I47"/>
+    <hyperlink r:id="rId47" ref="I48"/>
+    <hyperlink r:id="rId48" ref="I49"/>
+    <hyperlink r:id="rId49" ref="I50"/>
+    <hyperlink r:id="rId50" ref="I51"/>
+    <hyperlink r:id="rId51" ref="I52"/>
+    <hyperlink r:id="rId52" ref="I53"/>
+    <hyperlink r:id="rId53" ref="I54"/>
+    <hyperlink r:id="rId54" ref="I55"/>
+    <hyperlink r:id="rId55" ref="I56"/>
+    <hyperlink r:id="rId56" ref="I57"/>
+    <hyperlink r:id="rId57" ref="I58"/>
   </hyperlinks>
-  <drawing r:id="rId40"/>
+  <drawing r:id="rId58"/>
 </worksheet>
 </file>
 
@@ -3852,100 +3953,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>196</v>
+      <c r="K1" s="18" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="22">
-        <v>20000.0</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>199</v>
+      <c r="A2" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="21">
+        <v>35000.0</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>218</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="I2" s="24"/>
+        <v>220</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>221</v>
+      </c>
       <c r="J2" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="26" t="str">
-        <f t="shared" ref="K2:K29" si="1">image(I2,1)</f>
+        <f t="shared" ref="K2:K28" si="1">image(I2,1)</f>
         <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="22">
-        <v>25000.0</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>203</v>
+      <c r="A3" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="21">
+        <v>35000.0</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>223</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="I3" s="24"/>
+        <v>225</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>226</v>
+      </c>
       <c r="J3" s="25" t="b">
         <v>0</v>
       </c>
@@ -3955,31 +4060,33 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="22">
+      <c r="A4" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="21">
         <v>35000.0</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>207</v>
+      <c r="D4" s="22" t="s">
+        <v>228</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="I4" s="24"/>
+        <v>230</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>231</v>
+      </c>
       <c r="J4" s="25" t="b">
         <v>0</v>
       </c>
@@ -3989,31 +4096,33 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="22">
+      <c r="A5" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="21">
         <v>35000.0</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>211</v>
+      <c r="D5" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="I5" s="24"/>
+        <v>235</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>236</v>
+      </c>
       <c r="J5" s="25" t="b">
         <v>0</v>
       </c>
@@ -4023,68 +4132,68 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" s="22">
+      <c r="A6" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="21">
         <v>35000.0</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="J6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="J6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="22">
+      <c r="B7" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="21">
         <v>35000.0</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>221</v>
+      <c r="D7" s="22" t="s">
+        <v>243</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>224</v>
+        <v>245</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>246</v>
       </c>
       <c r="J7" s="25" t="b">
         <v>0</v>
@@ -4095,32 +4204,32 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" s="22">
+      <c r="A8" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="21">
         <v>35000.0</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>226</v>
+      <c r="D8" s="22" t="s">
+        <v>248</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>229</v>
+        <v>250</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>251</v>
       </c>
       <c r="J8" s="25" t="b">
         <v>0</v>
@@ -4131,32 +4240,32 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="22">
+      <c r="A9" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="21">
         <v>35000.0</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>231</v>
+      <c r="D9" s="22" t="s">
+        <v>254</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>234</v>
+        <v>256</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>257</v>
       </c>
       <c r="J9" s="25" t="b">
         <v>0</v>
@@ -4167,99 +4276,105 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10" s="31">
+      <c r="A10" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="21">
         <v>35000.0</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="36" t="str">
+      <c r="D10" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="J10" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="31">
+      <c r="A11" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="21">
         <v>35000.0</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="36" t="str">
+      <c r="D11" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="J11" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="22">
+      <c r="A12" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="21">
         <v>35000.0</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>244</v>
+      <c r="D12" s="22" t="s">
+        <v>269</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="I12" s="24"/>
+        <v>271</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>272</v>
+      </c>
       <c r="J12" s="25" t="b">
         <v>0</v>
       </c>
@@ -4269,241 +4384,211 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="C13" s="22">
+      <c r="A13" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="29">
         <v>35000.0</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="J13" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="26" t="str">
+      <c r="D13" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" s="22">
+      <c r="A14" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" s="21">
+        <v>30000.0</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="J14" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="21">
+        <v>30000.0</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="J15" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="21">
+        <v>30000.0</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="J16" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="21">
+        <v>30000.0</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="J17" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C18" s="21">
         <v>35000.0</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="J14" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="C15" s="22">
+      <c r="D18" s="35"/>
+      <c r="E18" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="J18" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="21">
         <v>35000.0</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="J15" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="C16" s="22">
-        <v>35000.0</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="J16" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="C17" s="22">
-        <v>35000.0</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="J17" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="C18" s="22">
-        <v>35000.0</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="J18" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C19" s="22">
-        <v>35000.0</v>
-      </c>
-      <c r="D19" s="24"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="23" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="23" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
+      <c r="I19" s="24" t="s">
+        <v>296</v>
+      </c>
       <c r="J19" s="25" t="b">
         <v>0</v>
       </c>
@@ -4513,85 +4598,99 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C20" s="22">
+      <c r="A20" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" s="21">
+        <v>20000.0</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="J20" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" s="21">
+        <v>25000.0</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="I21" s="35"/>
+      <c r="J21" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22" s="21">
         <v>35000.0</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="C21" s="22">
-        <v>30000.0</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="J21" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="C22" s="22">
-        <v>30000.0</v>
-      </c>
-      <c r="D22" s="24"/>
+      <c r="D22" s="22" t="s">
+        <v>307</v>
+      </c>
       <c r="E22" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="F22" s="23"/>
+        <v>308</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>309</v>
+      </c>
       <c r="G22" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="28" t="s">
-        <v>288</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="I22" s="35"/>
       <c r="J22" s="25" t="b">
         <v>0</v>
       </c>
@@ -4601,27 +4700,31 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="C23" s="22">
-        <v>30000.0</v>
-      </c>
-      <c r="D23" s="24"/>
+      <c r="A23" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="C23" s="21">
+        <v>35000.0</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>311</v>
+      </c>
       <c r="E23" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="F23" s="23"/>
+        <v>312</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>313</v>
+      </c>
       <c r="G23" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="28" t="s">
-        <v>291</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="I23" s="35"/>
       <c r="J23" s="25" t="b">
         <v>0</v>
       </c>
@@ -4631,27 +4734,25 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="C24" s="22">
-        <v>30000.0</v>
-      </c>
-      <c r="D24" s="24"/>
+      <c r="A24" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="21">
+        <v>18000.0</v>
+      </c>
+      <c r="D24" s="35"/>
       <c r="E24" s="23" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="23" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="H24" s="23"/>
-      <c r="I24" s="28" t="s">
-        <v>294</v>
-      </c>
+      <c r="I24" s="35"/>
       <c r="J24" s="25" t="b">
         <v>0</v>
       </c>
@@ -4661,25 +4762,25 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="C25" s="22">
+      <c r="A25" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="C25" s="21">
         <v>18000.0</v>
       </c>
-      <c r="D25" s="24"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="23" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="23" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="25" t="b">
         <v>0</v>
       </c>
@@ -4689,25 +4790,25 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="C26" s="22">
+      <c r="A26" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26" s="37">
         <v>18000.0</v>
       </c>
-      <c r="D26" s="24"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="23" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="H26" s="23"/>
-      <c r="I26" s="24"/>
+      <c r="I26" s="35"/>
       <c r="J26" s="25" t="b">
         <v>0</v>
       </c>
@@ -4717,25 +4818,25 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="C27" s="38">
+      <c r="A27" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="C27" s="21">
         <v>18000.0</v>
       </c>
-      <c r="D27" s="24"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="23" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="25" t="b">
         <v>0</v>
       </c>
@@ -4745,84 +4846,59 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="C28" s="22">
-        <v>18000.0</v>
-      </c>
-      <c r="D28" s="24"/>
+      <c r="A28" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="C28" s="21">
+        <v>12000.0</v>
+      </c>
+      <c r="D28" s="35"/>
       <c r="E28" s="23" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="H28" s="23"/>
-      <c r="I28" s="24"/>
+      <c r="I28" s="35"/>
       <c r="J28" s="25" t="b">
         <v>0</v>
       </c>
       <c r="K28" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="C29" s="22">
-        <v>12000.0</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A29">
-      <formula1>Helper!$B$2:$B29</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A28">
+      <formula1>Helper!$B$2:$B28</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I6"/>
-    <hyperlink r:id="rId2" ref="I7"/>
-    <hyperlink r:id="rId3" ref="I8"/>
-    <hyperlink r:id="rId4" ref="I9"/>
-    <hyperlink r:id="rId5" ref="I13"/>
-    <hyperlink r:id="rId6" ref="I14"/>
-    <hyperlink r:id="rId7" ref="I15"/>
-    <hyperlink r:id="rId8" ref="I16"/>
-    <hyperlink r:id="rId9" ref="I17"/>
-    <hyperlink r:id="rId10" ref="I18"/>
-    <hyperlink r:id="rId11" ref="I21"/>
-    <hyperlink r:id="rId12" ref="I22"/>
-    <hyperlink r:id="rId13" ref="I23"/>
-    <hyperlink r:id="rId14" ref="I24"/>
+    <hyperlink r:id="rId1" ref="I2"/>
+    <hyperlink r:id="rId2" ref="I3"/>
+    <hyperlink r:id="rId3" ref="I4"/>
+    <hyperlink r:id="rId4" ref="I5"/>
+    <hyperlink r:id="rId5" ref="I6"/>
+    <hyperlink r:id="rId6" ref="I7"/>
+    <hyperlink r:id="rId7" ref="I8"/>
+    <hyperlink r:id="rId8" ref="I9"/>
+    <hyperlink r:id="rId9" ref="I10"/>
+    <hyperlink r:id="rId10" ref="I11"/>
+    <hyperlink r:id="rId11" ref="I12"/>
+    <hyperlink r:id="rId12" ref="I14"/>
+    <hyperlink r:id="rId13" ref="I15"/>
+    <hyperlink r:id="rId14" ref="I16"/>
+    <hyperlink r:id="rId15" ref="I17"/>
+    <hyperlink r:id="rId16" ref="I18"/>
+    <hyperlink r:id="rId17" ref="I19"/>
   </hyperlinks>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -4837,136 +4913,144 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>304</v>
+      <c r="A2" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>33</v>
+      <c r="A3" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>79</v>
+      <c r="A4" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>56</v>
+      <c r="A5" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>305</v>
+      <c r="A6" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>130</v>
+      <c r="A7" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>150</v>
+      <c r="A8" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>10</v>
+      <c r="A9" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>181</v>
+      <c r="A10" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>242</v>
+      <c r="A11" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>214</v>
+      <c r="A12" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>197</v>
+      <c r="A13" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="B14" s="40" t="s">
+      <c r="A14" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="39" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>282</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nhấp và nhập một giá trị từ danh sách các mục" sqref="A2:A16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nhấp và nhập một giá trị từ danh sách các mục" sqref="A2:A17">
       <formula1>"food,drink"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4985,88 +5069,94 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>308</v>
+      <c r="A1" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="41" t="str">
+      <c r="A2" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(Category!B2:B1001, Category!A2:A1001=""food"")
-"),"appetizer")</f>
+"),"special")</f>
+        <v>special</v>
+      </c>
+      <c r="B2" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(Category!B3:B1001, Category!A3:A1001=""drink"")"),"tea")</f>
+        <v>tea</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"appetizer")</f>
         <v>appetizer</v>
       </c>
-      <c r="B2" s="41" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(Category!B2:B1001, Category!A2:A1001=""drink"")"),"tea")</f>
-        <v>tea</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="41" t="str">
+      <c r="B3" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"juice")</f>
+        <v>juice</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"roll")</f>
         <v>roll</v>
       </c>
-      <c r="B3" s="41" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"juice")</f>
-        <v>juice</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="41" t="str">
+      <c r="B4" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coffee")</f>
+        <v>coffee</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mainDish")</f>
         <v>mainDish</v>
       </c>
-      <c r="B4" s="41" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coffee")</f>
-        <v>coffee</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="41" t="str">
+      <c r="B5" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"thaiTea")</f>
+        <v>thaiTea</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"hotPot")</f>
         <v>hotPot</v>
       </c>
-      <c r="B5" s="41" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"thaiTea")</f>
-        <v>thaiTea</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="41" t="str">
+      <c r="B6" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"softdrink")</f>
+        <v>softdrink</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ricePortion")</f>
         <v>ricePortion</v>
       </c>
-      <c r="B6" s="41" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"softdrink")</f>
-        <v>softdrink</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="41" t="str">
+      <c r="B7" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"soda")</f>
+        <v>soda</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"soup")</f>
         <v>soup</v>
       </c>
-      <c r="B7" s="41" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"soda")</f>
-        <v>soda</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="41" t="str">
+    </row>
+    <row r="9">
+      <c r="A9" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"saltDish")</f>
         <v>saltDish</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="41" t="str">
+    <row r="10">
+      <c r="A10" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"salad")</f>
         <v>salad</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="41" t="str">
+    <row r="11">
+      <c r="A11" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dessert")</f>
         <v>dessert</v>
       </c>
